--- a/COVID Budget Impact Analysis.xlsx
+++ b/COVID Budget Impact Analysis.xlsx
@@ -4516,25 +4516,25 @@
         </is>
       </c>
       <c r="L7" s="40" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="M7" s="40" t="n">
-        <v>0.02933388519249003</v>
+        <v>0.04190555027498566</v>
       </c>
       <c r="N7" s="40" t="n">
-        <v>0.01517507595044554</v>
+        <v>0.02167867992920791</v>
       </c>
       <c r="O7" s="40" t="n">
-        <v>0.007765068619411175</v>
+        <v>0.01109295517058728</v>
       </c>
       <c r="P7" s="40" t="n">
-        <v>0.003970019534419666</v>
+        <v>0.005671456477742476</v>
       </c>
       <c r="Q7" s="40" t="n">
-        <v>0.002023431530018938</v>
+        <v>0.002890616471455498</v>
       </c>
       <c r="R7" s="40" t="n">
-        <v>0.001041530388762868</v>
+        <v>0.001487900555375399</v>
       </c>
       <c r="S7" s="40" t="n"/>
     </row>
@@ -4601,25 +4601,25 @@
         </is>
       </c>
       <c r="B9" s="40" t="n">
-        <v>0.04336417424997963</v>
+        <v>0.08672834849995936</v>
       </c>
       <c r="C9" s="40" t="n">
-        <v>0.01636505639351005</v>
+        <v>0.0327301127870202</v>
       </c>
       <c r="D9" s="40" t="n">
-        <v>0.007007214733189882</v>
+        <v>0.0140144294663801</v>
       </c>
       <c r="E9" s="40" t="n">
-        <v>0.00295221310574556</v>
+        <v>0.005904426211490899</v>
       </c>
       <c r="F9" s="40" t="n">
-        <v>0.001243374371044159</v>
+        <v>0.00248674874208854</v>
       </c>
       <c r="G9" s="40" t="n">
-        <v>0.0005214586632047435</v>
+        <v>0.001042917326409598</v>
       </c>
       <c r="H9" s="40" t="n">
-        <v>0.0002216550045196497</v>
+        <v>0.0004433100090392994</v>
       </c>
       <c r="I9" s="40" t="n"/>
       <c r="K9" s="127" t="inlineStr">
@@ -4628,25 +4628,25 @@
         </is>
       </c>
       <c r="L9" s="40" t="n">
-        <v>0.09999999999999987</v>
+        <v>0.1999999999999998</v>
       </c>
       <c r="M9" s="40" t="n">
-        <v>0.04185761223808626</v>
+        <v>0.0837152244761723</v>
       </c>
       <c r="N9" s="40" t="n">
-        <v>0.02167762987749189</v>
+        <v>0.04335525975498378</v>
       </c>
       <c r="O9" s="40" t="n">
-        <v>0.01108390988913643</v>
+        <v>0.02216781977827287</v>
       </c>
       <c r="P9" s="40" t="n">
-        <v>0.005669835373702803</v>
+        <v>0.01133967074740561</v>
       </c>
       <c r="Q9" s="40" t="n">
-        <v>0.002889359270887515</v>
+        <v>0.005778718541774919</v>
       </c>
       <c r="R9" s="40" t="n">
-        <v>0.001488037983974677</v>
+        <v>0.002976075967949576</v>
       </c>
       <c r="S9" s="40" t="n"/>
     </row>
@@ -4657,25 +4657,25 @@
         </is>
       </c>
       <c r="B10" s="40" t="n">
-        <v>0.02169954014978481</v>
+        <v>0.0260394481797418</v>
       </c>
       <c r="C10" s="40" t="n">
-        <v>0.008193834814235967</v>
+        <v>0.009832601777083005</v>
       </c>
       <c r="D10" s="40" t="n">
-        <v>0.003501268606116992</v>
+        <v>0.004201522327340612</v>
       </c>
       <c r="E10" s="40" t="n">
-        <v>0.001477484592834699</v>
+        <v>0.001772981511401484</v>
       </c>
       <c r="F10" s="40" t="n">
-        <v>0.0006219810328100817</v>
+        <v>0.000746377239371987</v>
       </c>
       <c r="G10" s="40" t="n">
-        <v>0.0002608654333928762</v>
+        <v>0.0003130385200714736</v>
       </c>
       <c r="H10" s="40" t="n">
-        <v>0.0001107797684494205</v>
+        <v>0.000132935722139349</v>
       </c>
       <c r="I10" s="40" t="n"/>
       <c r="K10" s="127" t="inlineStr">
@@ -4852,25 +4852,25 @@
         </is>
       </c>
       <c r="L13" s="40" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="M13" s="40" t="n">
-        <v>0.02924785799254026</v>
+        <v>0.04178265427505745</v>
       </c>
       <c r="N13" s="40" t="n">
-        <v>0.01518217023032864</v>
+        <v>0.02168881461475514</v>
       </c>
       <c r="O13" s="40" t="n">
-        <v>0.007746619214457073</v>
+        <v>0.01106659887779593</v>
       </c>
       <c r="P13" s="40" t="n">
-        <v>0.003966726548956245</v>
+        <v>0.005666752212794557</v>
       </c>
       <c r="Q13" s="40" t="n">
-        <v>0.002021026173691043</v>
+        <v>0.002887180248130061</v>
       </c>
       <c r="R13" s="40" t="n">
-        <v>0.001041841804496291</v>
+        <v>0.001488345434994542</v>
       </c>
       <c r="S13" s="40" t="n"/>
     </row>
@@ -4908,25 +4908,25 @@
         </is>
       </c>
       <c r="L14" s="40" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="M14" s="40" t="n">
-        <v>0.1044535504895403</v>
+        <v>0.1253442605874483</v>
       </c>
       <c r="N14" s="40" t="n">
-        <v>0.0541763147354315</v>
+        <v>0.06501157768251786</v>
       </c>
       <c r="O14" s="40" t="n">
-        <v>0.02768377662437083</v>
+        <v>0.03322053194924512</v>
       </c>
       <c r="P14" s="40" t="n">
-        <v>0.0141597161762278</v>
+        <v>0.01699165941147329</v>
       </c>
       <c r="Q14" s="40" t="n">
-        <v>0.007216650978840167</v>
+        <v>0.0086599811746082</v>
       </c>
       <c r="R14" s="40" t="n">
-        <v>0.003718717437958929</v>
+        <v>0.004462460925550804</v>
       </c>
       <c r="S14" s="40" t="n"/>
     </row>
@@ -4964,25 +4964,25 @@
         </is>
       </c>
       <c r="L15" s="40" t="n">
-        <v>0.2499999999999999</v>
+        <v>0.2999999999999999</v>
       </c>
       <c r="M15" s="40" t="n">
-        <v>0.1047296095859441</v>
+        <v>0.1256755315031332</v>
       </c>
       <c r="N15" s="40" t="n">
-        <v>0.0541765891910021</v>
+        <v>0.06501190702920268</v>
       </c>
       <c r="O15" s="40" t="n">
-        <v>0.02772375169736119</v>
+        <v>0.03326850203683362</v>
       </c>
       <c r="P15" s="40" t="n">
-        <v>0.01417932971576352</v>
+        <v>0.01701519565891629</v>
       </c>
       <c r="Q15" s="40" t="n">
-        <v>0.007225925937951905</v>
+        <v>0.008671111125542308</v>
       </c>
       <c r="R15" s="40" t="n">
-        <v>0.003719869030296308</v>
+        <v>0.004463842836355703</v>
       </c>
       <c r="S15" s="40" t="n"/>
     </row>
@@ -5020,25 +5020,25 @@
         </is>
       </c>
       <c r="L16" s="40" t="n">
-        <v>0.07000000000000017</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="M16" s="40" t="n">
-        <v>0.02928868691527586</v>
+        <v>0.04184098130753711</v>
       </c>
       <c r="N16" s="40" t="n">
-        <v>0.01517363020582041</v>
+        <v>0.02167661457974346</v>
       </c>
       <c r="O16" s="40" t="n">
-        <v>0.007758595305765503</v>
+        <v>0.01108370757966515</v>
       </c>
       <c r="P16" s="40" t="n">
-        <v>0.00396906603599978</v>
+        <v>0.005670094337142384</v>
       </c>
       <c r="Q16" s="40" t="n">
-        <v>0.00202222196933044</v>
+        <v>0.002888888527614819</v>
       </c>
       <c r="R16" s="40" t="n">
-        <v>0.001041753935057566</v>
+        <v>0.00148821990722503</v>
       </c>
       <c r="S16" s="40" t="n"/>
     </row>
@@ -5076,25 +5076,25 @@
         </is>
       </c>
       <c r="L17" s="40" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="M17" s="40" t="n">
-        <v>0.02927666341650803</v>
+        <v>0.04182380488072568</v>
       </c>
       <c r="N17" s="40" t="n">
-        <v>0.01517983361150588</v>
+        <v>0.02168547658786579</v>
       </c>
       <c r="O17" s="40" t="n">
-        <v>0.007755956837738665</v>
+        <v>0.01107993833962662</v>
       </c>
       <c r="P17" s="40" t="n">
-        <v>0.003967940385342872</v>
+        <v>0.005668486264775563</v>
       </c>
       <c r="Q17" s="40" t="n">
-        <v>0.0020218561101496</v>
+        <v>0.002888365871642429</v>
       </c>
       <c r="R17" s="40" t="n">
-        <v>0.001041747209894694</v>
+        <v>0.001488210299849468</v>
       </c>
       <c r="S17" s="40" t="n"/>
     </row>
@@ -5132,25 +5132,25 @@
         </is>
       </c>
       <c r="L18" s="40" t="n">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999987</v>
       </c>
       <c r="M18" s="40" t="n">
-        <v>0.02926639148186028</v>
+        <v>0.041809130688372</v>
       </c>
       <c r="N18" s="40" t="n">
-        <v>0.0151679912633147</v>
+        <v>0.02166855894759256</v>
       </c>
       <c r="O18" s="40" t="n">
-        <v>0.007749660730757002</v>
+        <v>0.01107094390108121</v>
       </c>
       <c r="P18" s="40" t="n">
-        <v>0.003966542524508676</v>
+        <v>0.005666489320726553</v>
       </c>
       <c r="Q18" s="40" t="n">
-        <v>0.002021373575974095</v>
+        <v>0.002887676537105976</v>
       </c>
       <c r="R18" s="40" t="n">
-        <v>0.001041226464672529</v>
+        <v>0.001487466378103486</v>
       </c>
       <c r="S18" s="40" t="n"/>
     </row>
@@ -5188,25 +5188,25 @@
         </is>
       </c>
       <c r="L19" s="40" t="n">
-        <v>0.07000000000000017</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="M19" s="40" t="n">
-        <v>0.02928188380877483</v>
+        <v>0.04183126258396397</v>
       </c>
       <c r="N19" s="40" t="n">
-        <v>0.01516388124615431</v>
+        <v>0.02166268749450617</v>
       </c>
       <c r="O19" s="40" t="n">
-        <v>0.007757386740465555</v>
+        <v>0.01108198105780778</v>
       </c>
       <c r="P19" s="40" t="n">
-        <v>0.003967495686160727</v>
+        <v>0.005667850980229483</v>
       </c>
       <c r="Q19" s="40" t="n">
-        <v>0.002021765457136726</v>
+        <v>0.002888236367338259</v>
       </c>
       <c r="R19" s="40" t="n">
-        <v>0.001041221974603102</v>
+        <v>0.001487459963718685</v>
       </c>
       <c r="S19" s="40" t="n"/>
     </row>
@@ -5356,25 +5356,25 @@
         </is>
       </c>
       <c r="L22" s="40" t="n">
-        <v>0.1500000000000001</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="M22" s="40" t="n">
-        <v>0.06279048235693818</v>
+        <v>0.08372064314258443</v>
       </c>
       <c r="N22" s="40" t="n">
-        <v>0.03254097257352873</v>
+        <v>0.04338796343137186</v>
       </c>
       <c r="O22" s="40" t="n">
-        <v>0.01662537528764607</v>
+        <v>0.02216716705019472</v>
       </c>
       <c r="P22" s="40" t="n">
-        <v>0.00850721545761568</v>
+        <v>0.0113429539434875</v>
       </c>
       <c r="Q22" s="40" t="n">
-        <v>0.004334814835352252</v>
+        <v>0.005779753113802855</v>
       </c>
       <c r="R22" s="40" t="n">
-        <v>0.002232962726249399</v>
+        <v>0.002977283634999162</v>
       </c>
       <c r="S22" s="40" t="n"/>
     </row>
@@ -5468,25 +5468,25 @@
         </is>
       </c>
       <c r="L24" s="40" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.1000000000000002</v>
       </c>
       <c r="M24" s="40" t="n">
-        <v>0.02931535657622863</v>
+        <v>0.0418790808231837</v>
       </c>
       <c r="N24" s="40" t="n">
-        <v>0.01517201832474036</v>
+        <v>0.02167431189248614</v>
       </c>
       <c r="O24" s="40" t="n">
-        <v>0.007764587601176598</v>
+        <v>0.01109226800168106</v>
       </c>
       <c r="P24" s="40" t="n">
-        <v>0.003970991565606652</v>
+        <v>0.005672845093723899</v>
       </c>
       <c r="Q24" s="40" t="n">
-        <v>0.002022987030961709</v>
+        <v>0.002889981472802283</v>
       </c>
       <c r="R24" s="40" t="n">
-        <v>0.001041839163287483</v>
+        <v>0.001488341661839199</v>
       </c>
       <c r="S24" s="40" t="n"/>
     </row>
@@ -5524,25 +5524,25 @@
         </is>
       </c>
       <c r="L25" s="40" t="n">
-        <v>0.1999999999999998</v>
+        <v>0.2999999999999999</v>
       </c>
       <c r="M25" s="40" t="n">
-        <v>0.0837230992891721</v>
+        <v>0.1255846489337582</v>
       </c>
       <c r="N25" s="40" t="n">
-        <v>0.04334181201102538</v>
+        <v>0.06501271801653818</v>
       </c>
       <c r="O25" s="40" t="n">
-        <v>0.02216653949123604</v>
+        <v>0.03324980923685428</v>
       </c>
       <c r="P25" s="40" t="n">
-        <v>0.0113401498845892</v>
+        <v>0.01701022482688364</v>
       </c>
       <c r="Q25" s="40" t="n">
-        <v>0.005778996428398409</v>
+        <v>0.008668494642597446</v>
       </c>
       <c r="R25" s="40" t="n">
-        <v>0.002975787059615875</v>
+        <v>0.00446368058942348</v>
       </c>
       <c r="S25" s="40" t="n"/>
     </row>
@@ -5580,25 +5580,25 @@
         </is>
       </c>
       <c r="L26" s="40" t="n">
-        <v>0.07000000000000017</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="M26" s="40" t="n">
-        <v>0.02935493174438764</v>
+        <v>0.04193561677769664</v>
       </c>
       <c r="N26" s="40" t="n">
-        <v>0.01520934003340424</v>
+        <v>0.02172762861914879</v>
       </c>
       <c r="O26" s="40" t="n">
-        <v>0.007780119237669303</v>
+        <v>0.01111445605381323</v>
       </c>
       <c r="P26" s="40" t="n">
-        <v>0.003972007666135147</v>
+        <v>0.005674296665907463</v>
       </c>
       <c r="Q26" s="40" t="n">
-        <v>0.002026138198114591</v>
+        <v>0.002894483140163939</v>
       </c>
       <c r="R26" s="40" t="n">
-        <v>0.001043232545934747</v>
+        <v>0.001490332208478273</v>
       </c>
       <c r="S26" s="40" t="n"/>
     </row>
@@ -5664,25 +5664,25 @@
         </is>
       </c>
       <c r="B28" s="40" t="n">
-        <v>0.1009449606763134</v>
+        <v>0.1054470595409633</v>
       </c>
       <c r="C28" s="40" t="n">
-        <v>0.04584133456341999</v>
+        <v>0.04752804554677148</v>
       </c>
       <c r="D28" s="40" t="n">
-        <v>0.02392367714133581</v>
+        <v>0.02464536828920028</v>
       </c>
       <c r="E28" s="40" t="n">
-        <v>0.01274802968349598</v>
+        <v>0.01305230009748803</v>
       </c>
       <c r="F28" s="40" t="n">
-        <v>0.007016436269479009</v>
+        <v>0.007144537023926145</v>
       </c>
       <c r="G28" s="40" t="n">
-        <v>0.003942852859994628</v>
+        <v>0.003996173947333759</v>
       </c>
       <c r="H28" s="40" t="n">
-        <v>0.002286296366913909</v>
+        <v>0.002308960641350111</v>
       </c>
       <c r="I28" s="42" t="n"/>
       <c r="K28" s="127" t="inlineStr">
@@ -5691,25 +5691,25 @@
         </is>
       </c>
       <c r="L28" s="40" t="n">
-        <v>0.1956701290100499</v>
+        <v>0.2233473907938084</v>
       </c>
       <c r="M28" s="40" t="n">
-        <v>0.09899956560158596</v>
+        <v>0.1105536227026355</v>
       </c>
       <c r="N28" s="40" t="n">
-        <v>0.06135382446849447</v>
+        <v>0.06734561754829604</v>
       </c>
       <c r="O28" s="40" t="n">
-        <v>0.03883852077197802</v>
+        <v>0.04190051175758802</v>
       </c>
       <c r="P28" s="40" t="n">
-        <v>0.02532306755726865</v>
+        <v>0.02689079375585268</v>
       </c>
       <c r="Q28" s="40" t="n">
-        <v>0.01682979915841121</v>
+        <v>0.0176273717234442</v>
       </c>
       <c r="R28" s="40" t="n">
-        <v>0.01151333885519201</v>
+        <v>0.01192434396449582</v>
       </c>
       <c r="S28" s="43" t="n"/>
     </row>
@@ -16129,67 +16129,67 @@
         </is>
       </c>
       <c r="C102" s="88" t="n">
-        <v>12128440.42483756</v>
+        <v>11490101.45510927</v>
       </c>
       <c r="D102" s="88" t="n">
-        <v>12809810.25733798</v>
+        <v>12135609.71747809</v>
       </c>
       <c r="E102" s="88" t="n">
-        <v>11109290.6696083</v>
+        <v>10787799.94283507</v>
       </c>
       <c r="F102" s="88" t="n">
-        <v>12587587.70731531</v>
+        <v>12316346.79103637</v>
       </c>
       <c r="G102" s="88" t="n">
-        <v>13078351.69466638</v>
+        <v>12868122.1873697</v>
       </c>
       <c r="H102" s="88" t="n">
-        <v>11762911.26764549</v>
+        <v>11621665.65623876</v>
       </c>
       <c r="I102" s="88" t="n">
-        <v>13922781.11826627</v>
+        <v>13797770.86546465</v>
       </c>
       <c r="J102" s="88" t="n">
-        <v>12096469.83014025</v>
+        <v>12015193.18358098</v>
       </c>
       <c r="K102" s="88" t="n">
-        <v>11194319.36701619</v>
+        <v>11138002.66838743</v>
       </c>
       <c r="L102" s="88" t="n">
-        <v>17159930.46961089</v>
+        <v>17095265.30162406</v>
       </c>
       <c r="M102" s="88" t="n">
-        <v>12313302.87626875</v>
+        <v>12278534.71226073</v>
       </c>
       <c r="N102" s="88" t="n">
-        <v>14400398.11337058</v>
+        <v>14369923.61999017</v>
       </c>
       <c r="O102" s="88" t="n">
-        <v>14312958.3909776</v>
+        <v>14290253.31485347</v>
       </c>
       <c r="P102" s="88" t="n">
-        <v>13420018.7212707</v>
+        <v>13404058.61645508</v>
       </c>
       <c r="Q102" s="88" t="n">
-        <v>11719770.32369764</v>
+        <v>11709319.90052489</v>
       </c>
       <c r="R102" s="88" t="n">
-        <v>14007821.11107805</v>
+        <v>13998455.2044689</v>
       </c>
       <c r="S102" s="88" t="n">
-        <v>12950463.33938508</v>
+        <v>12943970.2225446</v>
       </c>
       <c r="T102" s="88" t="n">
-        <v>12309816.87426667</v>
+        <v>12305188.52277378</v>
       </c>
       <c r="U102" s="88" t="n">
-        <v>14548429.31706807</v>
+        <v>14544327.16937716</v>
       </c>
       <c r="V102" s="88" t="n">
-        <v>12604752.91909165</v>
+        <v>12602087.53272836</v>
       </c>
       <c r="W102" s="88" t="n">
-        <v>11843787.53110478</v>
+        <v>11841909.27526637</v>
       </c>
     </row>
     <row r="103">
@@ -16204,67 +16204,67 @@
         </is>
       </c>
       <c r="C103" s="88" t="n">
-        <v>15488454.40697533</v>
+        <v>15409026.4356575</v>
       </c>
       <c r="D103" s="88" t="n">
-        <v>16258872.86187589</v>
+        <v>16175494.02668678</v>
       </c>
       <c r="E103" s="88" t="n">
-        <v>13873988.13281703</v>
+        <v>13834410.98758871</v>
       </c>
       <c r="F103" s="88" t="n">
-        <v>15895671.50990736</v>
+        <v>15861784.17230234</v>
       </c>
       <c r="G103" s="88" t="n">
-        <v>16267210.99296082</v>
+        <v>16241270.56397313</v>
       </c>
       <c r="H103" s="88" t="n">
-        <v>14573441.94745384</v>
+        <v>14556047.01957</v>
       </c>
       <c r="I103" s="88" t="n">
-        <v>17261272.89128453</v>
+        <v>17245843.56041446</v>
       </c>
       <c r="J103" s="88" t="n">
-        <v>14968828.31675351</v>
+        <v>14958804.37898243</v>
       </c>
       <c r="K103" s="88" t="n">
-        <v>13961231.82547777</v>
+        <v>13954225.79254034</v>
       </c>
       <c r="L103" s="88" t="n">
-        <v>21478551.8644443</v>
+        <v>21470473.14810488</v>
       </c>
       <c r="M103" s="88" t="n">
-        <v>15326491.0148277</v>
+        <v>15322169.48793245</v>
       </c>
       <c r="N103" s="88" t="n">
-        <v>17843132.16854368</v>
+        <v>17839360.15017907</v>
       </c>
       <c r="O103" s="88" t="n">
-        <v>17847530.16364843</v>
+        <v>17844701.2001262</v>
       </c>
       <c r="P103" s="88" t="n">
-        <v>16647204.77223553</v>
+        <v>16645226.13686677</v>
       </c>
       <c r="Q103" s="88" t="n">
-        <v>14540274.18359308</v>
+        <v>14538978.21705894</v>
       </c>
       <c r="R103" s="88" t="n">
-        <v>17400188.90917557</v>
+        <v>17399025.88689521</v>
       </c>
       <c r="S103" s="88" t="n">
-        <v>15988254.4341699</v>
+        <v>15987453.0143069</v>
       </c>
       <c r="T103" s="88" t="n">
-        <v>15211438.60584949</v>
+        <v>15210866.78051483</v>
       </c>
       <c r="U103" s="88" t="n">
-        <v>18033814.37680528</v>
+        <v>18033305.95805885</v>
       </c>
       <c r="V103" s="88" t="n">
-        <v>15605050.29565606</v>
+        <v>15604720.34796622</v>
       </c>
       <c r="W103" s="88" t="n">
-        <v>14756607.58105956</v>
+        <v>14756373.58085725</v>
       </c>
     </row>
     <row r="104">
@@ -17554,67 +17554,67 @@
         </is>
       </c>
       <c r="C121" s="89" t="n">
-        <v>122483341.6714395</v>
+        <v>121765574.7303934</v>
       </c>
       <c r="D121" s="89" t="n">
-        <v>129313926.1824401</v>
+        <v>128556346.8073912</v>
       </c>
       <c r="E121" s="89" t="n">
-        <v>114928892.4838265</v>
+        <v>114567824.611825</v>
       </c>
       <c r="F121" s="89" t="n">
-        <v>132316221.9937008</v>
+        <v>132011093.7398169</v>
       </c>
       <c r="G121" s="89" t="n">
-        <v>138481411.4021768</v>
+        <v>138245241.4658924</v>
       </c>
       <c r="H121" s="89" t="n">
-        <v>125152005.0305521</v>
+        <v>124993364.4912616</v>
       </c>
       <c r="I121" s="89" t="n">
-        <v>148685328.4046791</v>
+        <v>148544888.8210074</v>
       </c>
       <c r="J121" s="89" t="n">
-        <v>129855998.9520782</v>
+        <v>129764698.3677479</v>
       </c>
       <c r="K121" s="89" t="n">
-        <v>120526765.5176773</v>
+        <v>120463442.7861111</v>
       </c>
       <c r="L121" s="89" t="n">
-        <v>185160788.9760296</v>
+        <v>185088045.0917034</v>
       </c>
       <c r="M121" s="89" t="n">
-        <v>132969197.7452564</v>
+        <v>132930108.0543531</v>
       </c>
       <c r="N121" s="89" t="n">
-        <v>155849233.9246835</v>
+        <v>155814987.4129385</v>
       </c>
       <c r="O121" s="89" t="n">
-        <v>155154823.9736393</v>
+        <v>155129289.933993</v>
       </c>
       <c r="P121" s="89" t="n">
-        <v>145641358.3366082</v>
+        <v>145623419.5964238</v>
       </c>
       <c r="Q121" s="89" t="n">
-        <v>127239764.7877267</v>
+        <v>127228018.3980199</v>
       </c>
       <c r="R121" s="89" t="n">
-        <v>153310762.9693346</v>
+        <v>153300234.0404451</v>
       </c>
       <c r="S121" s="89" t="n">
-        <v>141849743.2971507</v>
+        <v>141842448.7604471</v>
       </c>
       <c r="T121" s="89" t="n">
-        <v>134929439.9548461</v>
+        <v>134924239.7780186</v>
       </c>
       <c r="U121" s="89" t="n">
-        <v>159536813.0992892</v>
+        <v>159532202.5328519</v>
       </c>
       <c r="V121" s="89" t="n">
-        <v>138225597.632624</v>
+        <v>138222602.2985709</v>
       </c>
       <c r="W121" s="89" t="n">
-        <v>130044708.0210357</v>
+        <v>130042595.764995</v>
       </c>
     </row>
     <row r="122">
@@ -17704,67 +17704,67 @@
         </is>
       </c>
       <c r="C123" s="88" t="n">
-        <v>2424332.019333011</v>
+        <v>2346127.760644849</v>
       </c>
       <c r="D123" s="88" t="n">
-        <v>2548468.347177666</v>
+        <v>2466259.690817097</v>
       </c>
       <c r="E123" s="88" t="n">
-        <v>2148942.372202918</v>
+        <v>2079621.650518953</v>
       </c>
       <c r="F123" s="88" t="n">
-        <v>2493795.141290368</v>
+        <v>2454066.57614535</v>
       </c>
       <c r="G123" s="88" t="n">
-        <v>2571910.432282676</v>
+        <v>2539373.909715748</v>
       </c>
       <c r="H123" s="88" t="n">
-        <v>2302849.197101067</v>
+        <v>2279679.818413296</v>
       </c>
       <c r="I123" s="88" t="n">
-        <v>2743663.262745668</v>
+        <v>2721682.875001659</v>
       </c>
       <c r="J123" s="88" t="n">
-        <v>2371887.370647125</v>
+        <v>2356742.416724888</v>
       </c>
       <c r="K123" s="88" t="n">
-        <v>2212794.464781814</v>
+        <v>2201524.753505805</v>
       </c>
       <c r="L123" s="88" t="n">
-        <v>3439334.074331103</v>
+        <v>3425354.141333293</v>
       </c>
       <c r="M123" s="88" t="n">
-        <v>2438671.656685858</v>
+        <v>2430756.654747167</v>
       </c>
       <c r="N123" s="88" t="n">
-        <v>2863971.018226192</v>
+        <v>2856545.974663224</v>
       </c>
       <c r="O123" s="88" t="n">
-        <v>2858684.244961944</v>
+        <v>2852762.339882644</v>
       </c>
       <c r="P123" s="88" t="n">
-        <v>2671865.38290111</v>
+        <v>2667441.738848326</v>
       </c>
       <c r="Q123" s="88" t="n">
-        <v>2334523.152511208</v>
+        <v>2331433.437993702</v>
       </c>
       <c r="R123" s="88" t="n">
-        <v>2743261.855131453</v>
+        <v>2740359.107561471</v>
       </c>
       <c r="S123" s="88" t="n">
-        <v>2530244.29948547</v>
+        <v>2528103.480009875</v>
       </c>
       <c r="T123" s="88" t="n">
-        <v>2397824.777662734</v>
+        <v>2396202.393948114</v>
       </c>
       <c r="U123" s="88" t="n">
-        <v>2841286.33968304</v>
+        <v>2839748.879000903</v>
       </c>
       <c r="V123" s="88" t="n">
-        <v>2460651.566348472</v>
+        <v>2459586.640254481</v>
       </c>
       <c r="W123" s="88" t="n">
-        <v>2317172.997619025</v>
+        <v>2316370.894712187</v>
       </c>
     </row>
     <row r="124">
@@ -17854,67 +17854,67 @@
         </is>
       </c>
       <c r="C125" s="88" t="n">
-        <v>11490101.45510927</v>
+        <v>10213423.51565268</v>
       </c>
       <c r="D125" s="88" t="n">
-        <v>12135609.71747809</v>
+        <v>10787208.6377583</v>
       </c>
       <c r="E125" s="88" t="n">
-        <v>10287703.25674338</v>
+        <v>9144625.117105221</v>
       </c>
       <c r="F125" s="88" t="n">
-        <v>12200456.59806623</v>
+        <v>11542084.5725382</v>
       </c>
       <c r="G125" s="88" t="n">
-        <v>12744280.91593066</v>
+        <v>12199980.62989825</v>
       </c>
       <c r="H125" s="88" t="n">
-        <v>11514081.46643943</v>
+        <v>11124006.05382664</v>
       </c>
       <c r="I125" s="88" t="n">
-        <v>13679536.94895016</v>
+        <v>13311282.52683244</v>
       </c>
       <c r="J125" s="88" t="n">
-        <v>11922360.62290849</v>
+        <v>11666974.76911745</v>
       </c>
       <c r="K125" s="88" t="n">
-        <v>11061881.71423424</v>
+        <v>10873127.36282353</v>
       </c>
       <c r="L125" s="88" t="n">
-        <v>16993411.02837802</v>
+        <v>16762226.41915832</v>
       </c>
       <c r="M125" s="88" t="n">
-        <v>12215484.63706008</v>
+        <v>12082898.23384339</v>
       </c>
       <c r="N125" s="88" t="n">
-        <v>14306912.35495351</v>
+        <v>14182952.10315603</v>
       </c>
       <c r="O125" s="88" t="n">
-        <v>14237149.53788947</v>
+        <v>14138635.6086772</v>
       </c>
       <c r="P125" s="88" t="n">
-        <v>13362113.75133715</v>
+        <v>13288248.67658798</v>
       </c>
       <c r="Q125" s="88" t="n">
-        <v>11678630.69044015</v>
+        <v>11627040.63400989</v>
       </c>
       <c r="R125" s="88" t="n">
-        <v>13967868.42532029</v>
+        <v>13918549.83295339</v>
       </c>
       <c r="S125" s="88" t="n">
-        <v>12920485.86605801</v>
+        <v>12884015.27589043</v>
       </c>
       <c r="T125" s="88" t="n">
-        <v>12286715.56029456</v>
+        <v>12258985.89482956</v>
       </c>
       <c r="U125" s="88" t="n">
-        <v>14526315.95464619</v>
+        <v>14500100.44453339</v>
       </c>
       <c r="V125" s="88" t="n">
-        <v>12589249.10085253</v>
+        <v>12571079.89625012</v>
       </c>
       <c r="W125" s="88" t="n">
-        <v>11832008.66412104</v>
+        <v>11818351.54129888</v>
       </c>
     </row>
     <row r="126">
@@ -18154,67 +18154,67 @@
         </is>
       </c>
       <c r="C129" s="88" t="n">
-        <v>4279772.048915669</v>
+        <v>4141714.886047422</v>
       </c>
       <c r="D129" s="88" t="n">
-        <v>4543066.27521081</v>
+        <v>4396515.75020401</v>
       </c>
       <c r="E129" s="88" t="n">
-        <v>3891835.409003119</v>
+        <v>3766292.331293341</v>
       </c>
       <c r="F129" s="88" t="n">
-        <v>4389238.888575358</v>
+        <v>4319314.073888462</v>
       </c>
       <c r="G129" s="88" t="n">
-        <v>4628322.276823919</v>
+        <v>4569770.660750243</v>
       </c>
       <c r="H129" s="88" t="n">
-        <v>4221807.815028884</v>
+        <v>4179331.449604464</v>
       </c>
       <c r="I129" s="88" t="n">
-        <v>5012495.186087698</v>
+        <v>4972338.44045087</v>
       </c>
       <c r="J129" s="88" t="n">
-        <v>4355032.851830896</v>
+        <v>4327225.13520529</v>
       </c>
       <c r="K129" s="88" t="n">
-        <v>4011724.520379092</v>
+        <v>3991292.899736902</v>
       </c>
       <c r="L129" s="88" t="n">
-        <v>6062801.08317274</v>
+        <v>6038157.489067015</v>
       </c>
       <c r="M129" s="88" t="n">
-        <v>4436292.8402466</v>
+        <v>4421894.318684713</v>
       </c>
       <c r="N129" s="88" t="n">
-        <v>5194547.789608366</v>
+        <v>5181080.564073503</v>
       </c>
       <c r="O129" s="88" t="n">
-        <v>5144654.25991794</v>
+        <v>5133996.855468063</v>
       </c>
       <c r="P129" s="88" t="n">
-        <v>4841651.59512304</v>
+        <v>4833635.568783733</v>
       </c>
       <c r="Q129" s="88" t="n">
-        <v>4249442.126529894</v>
+        <v>4243818.038794668</v>
       </c>
       <c r="R129" s="88" t="n">
-        <v>5004713.505348411</v>
+        <v>4999417.831536255</v>
       </c>
       <c r="S129" s="88" t="n">
-        <v>4649817.27331561</v>
+        <v>4645883.100090246</v>
       </c>
       <c r="T129" s="88" t="n">
-        <v>4446386.236236881</v>
+        <v>4443377.782622681</v>
       </c>
       <c r="U129" s="88" t="n">
-        <v>5255833.40156257</v>
+        <v>5252989.39492589</v>
       </c>
       <c r="V129" s="88" t="n">
-        <v>4555528.116895314</v>
+        <v>4553556.565607869</v>
       </c>
       <c r="W129" s="88" t="n">
-        <v>4267092.915251156</v>
+        <v>4265615.836226592</v>
       </c>
     </row>
     <row r="130">
@@ -18229,67 +18229,67 @@
         </is>
       </c>
       <c r="C130" s="88" t="n">
-        <v>6237655.875349379</v>
+        <v>5821812.150326087</v>
       </c>
       <c r="D130" s="88" t="n">
-        <v>6642752.353543937</v>
+        <v>6199902.196641007</v>
       </c>
       <c r="E130" s="88" t="n">
-        <v>5718100.640199119</v>
+        <v>5336893.930852511</v>
       </c>
       <c r="F130" s="88" t="n">
-        <v>7223849.373671096</v>
+        <v>7011773.061783504</v>
       </c>
       <c r="G130" s="88" t="n">
-        <v>7780841.607229099</v>
+        <v>7603310.818329754</v>
       </c>
       <c r="H130" s="88" t="n">
-        <v>7222192.72991391</v>
+        <v>7093305.916469646</v>
       </c>
       <c r="I130" s="88" t="n">
-        <v>8727838.776501013</v>
+        <v>8605418.299723573</v>
       </c>
       <c r="J130" s="88" t="n">
-        <v>7675375.702723521</v>
+        <v>7590440.504683954</v>
       </c>
       <c r="K130" s="88" t="n">
-        <v>7200641.721079182</v>
+        <v>7137593.944935916</v>
       </c>
       <c r="L130" s="88" t="n">
-        <v>10987149.51141212</v>
+        <v>10910856.01421756</v>
       </c>
       <c r="M130" s="88" t="n">
-        <v>8070578.513761768</v>
+        <v>8026054.749597636</v>
       </c>
       <c r="N130" s="88" t="n">
-        <v>9420193.04021739</v>
+        <v>9378845.691638026</v>
       </c>
       <c r="O130" s="88" t="n">
-        <v>9441553.431056282</v>
+        <v>9408545.427301899</v>
       </c>
       <c r="P130" s="88" t="n">
-        <v>8912188.047880966</v>
+        <v>8887349.027008642</v>
       </c>
       <c r="Q130" s="88" t="n">
-        <v>7892996.078096407</v>
+        <v>7875446.233583617</v>
       </c>
       <c r="R130" s="88" t="n">
-        <v>9283586.524930488</v>
+        <v>9267109.735426705</v>
       </c>
       <c r="S130" s="88" t="n">
-        <v>8638490.350568151</v>
+        <v>8626246.598471034</v>
       </c>
       <c r="T130" s="88" t="n">
-        <v>8288138.55719751</v>
+        <v>8278754.113044072</v>
       </c>
       <c r="U130" s="88" t="n">
-        <v>9856358.804957354</v>
+        <v>9847440.823169651</v>
       </c>
       <c r="V130" s="88" t="n">
-        <v>8557198.426191721</v>
+        <v>8551010.018801382</v>
       </c>
       <c r="W130" s="88" t="n">
-        <v>8078199.271562916</v>
+        <v>8073529.045724072</v>
       </c>
     </row>
     <row r="131">
@@ -18304,67 +18304,67 @@
         </is>
       </c>
       <c r="C131" s="88" t="n">
-        <v>7593701.543305084</v>
+        <v>7087454.773751411</v>
       </c>
       <c r="D131" s="88" t="n">
-        <v>7996466.615284916</v>
+        <v>7463368.840932588</v>
       </c>
       <c r="E131" s="88" t="n">
-        <v>6740387.739583813</v>
+        <v>6291028.556944892</v>
       </c>
       <c r="F131" s="88" t="n">
-        <v>9020877.857450459</v>
+        <v>8756044.746039068</v>
       </c>
       <c r="G131" s="88" t="n">
-        <v>9546774.24408556</v>
+        <v>9328951.231029775</v>
       </c>
       <c r="H131" s="88" t="n">
-        <v>8692153.862389654</v>
+        <v>8537034.211725885</v>
       </c>
       <c r="I131" s="88" t="n">
-        <v>10420124.57452833</v>
+        <v>10273967.3583881</v>
       </c>
       <c r="J131" s="88" t="n">
-        <v>9183540.799969841</v>
+        <v>9081916.347075228</v>
       </c>
       <c r="K131" s="88" t="n">
-        <v>8593289.679515228</v>
+        <v>8518048.079525286</v>
       </c>
       <c r="L131" s="88" t="n">
-        <v>13367824.40492679</v>
+        <v>13274999.77623895</v>
       </c>
       <c r="M131" s="88" t="n">
-        <v>9529386.344266783</v>
+        <v>9476814.629674384</v>
       </c>
       <c r="N131" s="88" t="n">
-        <v>11279338.1584706</v>
+        <v>11229830.6033078</v>
       </c>
       <c r="O131" s="88" t="n">
-        <v>11255986.72681316</v>
+        <v>11216635.40027024</v>
       </c>
       <c r="P131" s="88" t="n">
-        <v>10577388.54246158</v>
+        <v>10547908.46715691</v>
       </c>
       <c r="Q131" s="88" t="n">
-        <v>9222991.245932521</v>
+        <v>9202484.196301756</v>
       </c>
       <c r="R131" s="88" t="n">
-        <v>11216353.26637103</v>
+        <v>11196446.14413182</v>
       </c>
       <c r="S131" s="88" t="n">
-        <v>10368696.85867678</v>
+        <v>10354000.80082919</v>
       </c>
       <c r="T131" s="88" t="n">
-        <v>9837481.995073954</v>
+        <v>9826343.269562053</v>
       </c>
       <c r="U131" s="88" t="n">
-        <v>11625698.92994163</v>
+        <v>11615180.05848229</v>
       </c>
       <c r="V131" s="88" t="n">
-        <v>10077033.92671813</v>
+        <v>10069746.40244687</v>
       </c>
       <c r="W131" s="88" t="n">
-        <v>9487615.34962922</v>
+        <v>9482130.302174294</v>
       </c>
     </row>
     <row r="132">
@@ -18379,67 +18379,67 @@
         </is>
       </c>
       <c r="C132" s="88" t="n">
-        <v>15228812.26751958</v>
+        <v>14737560.25888992</v>
       </c>
       <c r="D132" s="88" t="n">
-        <v>16094349.26554494</v>
+        <v>15575176.70859188</v>
       </c>
       <c r="E132" s="88" t="n">
-        <v>13645894.80566247</v>
+        <v>13205704.6506411</v>
       </c>
       <c r="F132" s="88" t="n">
-        <v>16242139.90070164</v>
+        <v>15983386.92518432</v>
       </c>
       <c r="G132" s="88" t="n">
-        <v>17020227.33835274</v>
+        <v>16804909.18265901</v>
       </c>
       <c r="H132" s="88" t="n">
-        <v>15315987.9430084</v>
+        <v>15161891.04205821</v>
       </c>
       <c r="I132" s="88" t="n">
-        <v>18087329.02154609</v>
+        <v>17942425.48671901</v>
       </c>
       <c r="J132" s="88" t="n">
-        <v>15827143.51637346</v>
+        <v>15726084.1818357</v>
       </c>
       <c r="K132" s="88" t="n">
-        <v>14580537.84335941</v>
+        <v>14506279.49973155</v>
       </c>
       <c r="L132" s="88" t="n">
-        <v>22309379.59438269</v>
+        <v>22218698.19350341</v>
       </c>
       <c r="M132" s="88" t="n">
-        <v>16054604.51186111</v>
+        <v>16002497.36349289</v>
       </c>
       <c r="N132" s="88" t="n">
-        <v>18755083.85674341</v>
+        <v>18706460.00064389</v>
       </c>
       <c r="O132" s="88" t="n">
-        <v>18619229.95024575</v>
+        <v>18580659.29921657</v>
       </c>
       <c r="P132" s="88" t="n">
-        <v>17496296.37277986</v>
+        <v>17467328.82527896</v>
       </c>
       <c r="Q132" s="88" t="n">
-        <v>15247418.89993687</v>
+        <v>15227239.11654986</v>
       </c>
       <c r="R132" s="88" t="n">
-        <v>18679277.61577504</v>
+        <v>18659512.37622753</v>
       </c>
       <c r="S132" s="88" t="n">
-        <v>17317141.34401366</v>
+        <v>17302489.4491518</v>
       </c>
       <c r="T132" s="88" t="n">
-        <v>16458600.36456062</v>
+        <v>16447464.36936796</v>
       </c>
       <c r="U132" s="88" t="n">
-        <v>19416090.04533648</v>
+        <v>19405583.7212717</v>
       </c>
       <c r="V132" s="88" t="n">
-        <v>16817612.94969941</v>
+        <v>16810334.58688133</v>
       </c>
       <c r="W132" s="88" t="n">
-        <v>15784564.23459428</v>
+        <v>15779100.31590166</v>
       </c>
     </row>
     <row r="133">
@@ -18454,67 +18454,67 @@
         </is>
       </c>
       <c r="C133" s="88" t="n">
-        <v>926766.2405535624</v>
+        <v>896870.5553744152</v>
       </c>
       <c r="D133" s="88" t="n">
-        <v>979298.8595089819</v>
+        <v>947708.5737183697</v>
       </c>
       <c r="E133" s="88" t="n">
-        <v>835577.6378997831</v>
+        <v>808623.5205481772</v>
       </c>
       <c r="F133" s="88" t="n">
-        <v>959247.5249617926</v>
+        <v>943965.7854336924</v>
       </c>
       <c r="G133" s="88" t="n">
-        <v>1004233.121603996</v>
+        <v>991528.8480751062</v>
       </c>
       <c r="H133" s="88" t="n">
-        <v>910119.9100778433</v>
+        <v>900963.030472171</v>
       </c>
       <c r="I133" s="88" t="n">
-        <v>1080365.701884829</v>
+        <v>1071710.537326117</v>
       </c>
       <c r="J133" s="88" t="n">
-        <v>938251.4386457677</v>
+        <v>932260.5239920561</v>
       </c>
       <c r="K133" s="88" t="n">
-        <v>866692.6710009556</v>
+        <v>862278.6251766963</v>
       </c>
       <c r="L133" s="88" t="n">
-        <v>1320542.680115375</v>
+        <v>1315175.042721106</v>
       </c>
       <c r="M133" s="88" t="n">
-        <v>960679.906751939</v>
+        <v>957561.9046611052</v>
       </c>
       <c r="N133" s="88" t="n">
-        <v>1113854.021044359</v>
+        <v>1110966.277217201</v>
       </c>
       <c r="O133" s="88" t="n">
-        <v>1108746.684032073</v>
+        <v>1106449.86071855</v>
       </c>
       <c r="P133" s="88" t="n">
-        <v>1039923.702332545</v>
+        <v>1038201.964279943</v>
       </c>
       <c r="Q133" s="88" t="n">
-        <v>912098.4861261372</v>
+        <v>910891.3342797537</v>
       </c>
       <c r="R133" s="88" t="n">
-        <v>1081791.071358304</v>
+        <v>1080646.38792324</v>
       </c>
       <c r="S133" s="88" t="n">
-        <v>1002218.255394075</v>
+        <v>1001370.286539692</v>
       </c>
       <c r="T133" s="88" t="n">
-        <v>955757.5985632859</v>
+        <v>955110.9268058338</v>
       </c>
       <c r="U133" s="88" t="n">
-        <v>1130483.459928282</v>
+        <v>1129871.739156894</v>
       </c>
       <c r="V133" s="88" t="n">
-        <v>979459.6017132219</v>
+        <v>979035.7090735086</v>
       </c>
       <c r="W133" s="88" t="n">
-        <v>919090.2090208983</v>
+        <v>918772.0606007936</v>
       </c>
     </row>
     <row r="134">
@@ -18529,67 +18529,67 @@
         </is>
       </c>
       <c r="C134" s="88" t="n">
-        <v>1695142.179662921</v>
+        <v>1640460.173867343</v>
       </c>
       <c r="D134" s="88" t="n">
-        <v>1795848.393560325</v>
+        <v>1737917.800219669</v>
       </c>
       <c r="E134" s="88" t="n">
-        <v>1540490.28657999</v>
+        <v>1490797.051529023</v>
       </c>
       <c r="F134" s="88" t="n">
-        <v>1742395.944683838</v>
+        <v>1714637.894453229</v>
       </c>
       <c r="G134" s="88" t="n">
-        <v>1813848.298760562</v>
+        <v>1790901.809114253</v>
       </c>
       <c r="H134" s="88" t="n">
-        <v>1662656.003669619</v>
+        <v>1645927.723491737</v>
       </c>
       <c r="I134" s="88" t="n">
-        <v>1984254.056649008</v>
+        <v>1968357.54553557</v>
       </c>
       <c r="J134" s="88" t="n">
-        <v>1722203.250008411</v>
+        <v>1711206.653294382</v>
       </c>
       <c r="K134" s="88" t="n">
-        <v>1610352.166495338</v>
+        <v>1602150.679977751</v>
       </c>
       <c r="L134" s="88" t="n">
-        <v>2432611.810885855</v>
+        <v>2422723.922884606</v>
       </c>
       <c r="M134" s="88" t="n">
-        <v>1771660.051424497</v>
+        <v>1765909.915811414</v>
       </c>
       <c r="N134" s="88" t="n">
-        <v>2074313.316824088</v>
+        <v>2068935.515637328</v>
       </c>
       <c r="O134" s="88" t="n">
-        <v>2070511.074050728</v>
+        <v>2066221.908478217</v>
       </c>
       <c r="P134" s="88" t="n">
-        <v>1942759.386626922</v>
+        <v>1939542.878766294</v>
       </c>
       <c r="Q134" s="88" t="n">
-        <v>1712187.4049553</v>
+        <v>1709921.344635405</v>
       </c>
       <c r="R134" s="88" t="n">
-        <v>2008777.898678104</v>
+        <v>2006652.335945871</v>
       </c>
       <c r="S134" s="88" t="n">
-        <v>1853996.001590247</v>
+        <v>1852427.350393726</v>
       </c>
       <c r="T134" s="88" t="n">
-        <v>1781673.925073487</v>
+        <v>1780468.433000951</v>
       </c>
       <c r="U134" s="88" t="n">
-        <v>2117149.198870937</v>
+        <v>2116003.579154254</v>
       </c>
       <c r="V134" s="88" t="n">
-        <v>1832532.296223535</v>
+        <v>1831739.2089425</v>
       </c>
       <c r="W134" s="88" t="n">
-        <v>1734119.761148843</v>
+        <v>1733519.4855101</v>
       </c>
     </row>
     <row r="135">
@@ -18604,67 +18604,67 @@
         </is>
       </c>
       <c r="C135" s="88" t="n">
-        <v>2034491.756112107</v>
+        <v>1968862.98978591</v>
       </c>
       <c r="D135" s="88" t="n">
-        <v>2151878.005037146</v>
+        <v>2082462.585519819</v>
       </c>
       <c r="E135" s="88" t="n">
-        <v>1834620.001501989</v>
+        <v>1775438.711130957</v>
       </c>
       <c r="F135" s="88" t="n">
-        <v>2156405.016788281</v>
+        <v>2122051.402182958</v>
       </c>
       <c r="G135" s="88" t="n">
-        <v>2251862.342531836</v>
+        <v>2223374.659210619</v>
       </c>
       <c r="H135" s="88" t="n">
-        <v>2041163.433267899</v>
+        <v>2020626.921972001</v>
       </c>
       <c r="I135" s="88" t="n">
-        <v>2426633.247319431</v>
+        <v>2407192.691179459</v>
       </c>
       <c r="J135" s="88" t="n">
-        <v>2122614.797289547</v>
+        <v>2109061.496362429</v>
       </c>
       <c r="K135" s="88" t="n">
-        <v>1974878.531461834</v>
+        <v>1964820.52055798</v>
       </c>
       <c r="L135" s="88" t="n">
-        <v>3013210.489365251</v>
+        <v>3000962.629797315</v>
       </c>
       <c r="M135" s="88" t="n">
-        <v>2174738.847228723</v>
+        <v>2167680.470942284</v>
       </c>
       <c r="N135" s="88" t="n">
-        <v>2537628.512829587</v>
+        <v>2531049.534853037</v>
       </c>
       <c r="O135" s="88" t="n">
-        <v>2538632.336211278</v>
+        <v>2533373.434409591</v>
       </c>
       <c r="P135" s="88" t="n">
-        <v>2383365.863449908</v>
+        <v>2379419.870401407</v>
       </c>
       <c r="Q135" s="88" t="n">
-        <v>2091577.249457565</v>
+        <v>2088809.071045977</v>
       </c>
       <c r="R135" s="88" t="n">
-        <v>2530619.00021604</v>
+        <v>2527941.257972919</v>
       </c>
       <c r="S135" s="88" t="n">
-        <v>2340719.484371103</v>
+        <v>2338739.020326559</v>
       </c>
       <c r="T135" s="88" t="n">
-        <v>2237672.072425097</v>
+        <v>2236158.049064099</v>
       </c>
       <c r="U135" s="88" t="n">
-        <v>2655379.179454688</v>
+        <v>2653942.315796295</v>
       </c>
       <c r="V135" s="88" t="n">
-        <v>2300887.258632454</v>
+        <v>2299891.475680264</v>
       </c>
       <c r="W135" s="88" t="n">
-        <v>2174767.65681839</v>
+        <v>2174014.848348318</v>
       </c>
     </row>
     <row r="136">
@@ -18829,67 +18829,67 @@
         </is>
       </c>
       <c r="C138" s="88" t="n">
-        <v>3009475.873604552</v>
+        <v>2832447.881039579</v>
       </c>
       <c r="D138" s="88" t="n">
-        <v>3173756.891264117</v>
+        <v>2987065.309425052</v>
       </c>
       <c r="E138" s="88" t="n">
-        <v>2683096.407737127</v>
+        <v>2525267.207282002</v>
       </c>
       <c r="F138" s="88" t="n">
-        <v>3261976.023075271</v>
+        <v>3171522.615156372</v>
       </c>
       <c r="G138" s="88" t="n">
-        <v>3432534.504693083</v>
+        <v>3357634.331389177</v>
       </c>
       <c r="H138" s="88" t="n">
-        <v>3106726.007713634</v>
+        <v>3053194.214082706</v>
       </c>
       <c r="I138" s="88" t="n">
-        <v>3699921.473840076</v>
+        <v>3649440.885599603</v>
       </c>
       <c r="J138" s="88" t="n">
-        <v>3222513.41670045</v>
+        <v>3187625.43335543</v>
       </c>
       <c r="K138" s="88" t="n">
-        <v>2975202.940214128</v>
+        <v>2949600.830849936</v>
       </c>
       <c r="L138" s="88" t="n">
-        <v>4582285.300312339</v>
+        <v>4550902.280568381</v>
       </c>
       <c r="M138" s="88" t="n">
-        <v>3306263.571003797</v>
+        <v>3288222.633987751</v>
       </c>
       <c r="N138" s="88" t="n">
-        <v>3867921.924286584</v>
+        <v>3851092.480384787</v>
       </c>
       <c r="O138" s="88" t="n">
-        <v>3835577.189005378</v>
+        <v>3822260.983736197</v>
       </c>
       <c r="P138" s="88" t="n">
-        <v>3600082.496136295</v>
+        <v>3590104.381827364</v>
       </c>
       <c r="Q138" s="88" t="n">
-        <v>3136880.544220679</v>
+        <v>3129936.661676453</v>
       </c>
       <c r="R138" s="88" t="n">
-        <v>3738272.10403569</v>
+        <v>3731660.773876758</v>
       </c>
       <c r="S138" s="88" t="n">
-        <v>3460152.293952343</v>
+        <v>3455261.914729899</v>
       </c>
       <c r="T138" s="88" t="n">
-        <v>3281812.527843134</v>
+        <v>3278105.012550392</v>
       </c>
       <c r="U138" s="88" t="n">
-        <v>3870829.753847849</v>
+        <v>3867333.773663406</v>
       </c>
       <c r="V138" s="88" t="n">
-        <v>3355163.813519462</v>
+        <v>3352740.925575132</v>
       </c>
       <c r="W138" s="88" t="n">
-        <v>3135238.941595654</v>
+        <v>3133428.468396503</v>
       </c>
     </row>
     <row r="139">
@@ -18979,67 +18979,67 @@
         </is>
       </c>
       <c r="C140" s="88" t="n">
-        <v>3561121.266974236</v>
+        <v>3446246.387394423</v>
       </c>
       <c r="D140" s="88" t="n">
-        <v>3749695.548823067</v>
+        <v>3628737.62789329</v>
       </c>
       <c r="E140" s="88" t="n">
-        <v>3150484.935400951</v>
+        <v>3048856.389097694</v>
       </c>
       <c r="F140" s="88" t="n">
-        <v>3855170.003471066</v>
+        <v>3793753.421935516</v>
       </c>
       <c r="G140" s="88" t="n">
-        <v>4029903.269154391</v>
+        <v>3978922.085278945</v>
       </c>
       <c r="H140" s="88" t="n">
-        <v>3587820.296645223</v>
+        <v>3551722.59332132</v>
       </c>
       <c r="I140" s="88" t="n">
-        <v>4233496.455831346</v>
+        <v>4199580.524938667</v>
       </c>
       <c r="J140" s="88" t="n">
-        <v>3714701.896363543</v>
+        <v>3690982.815199953</v>
       </c>
       <c r="K140" s="88" t="n">
-        <v>3416586.089326404</v>
+        <v>3399185.495014932</v>
       </c>
       <c r="L140" s="88" t="n">
-        <v>5303500.705521136</v>
+        <v>5281943.45550859</v>
       </c>
       <c r="M140" s="88" t="n">
-        <v>3738891.989849266</v>
+        <v>3726756.966560222</v>
       </c>
       <c r="N140" s="88" t="n">
-        <v>4423055.189824383</v>
+        <v>4411588.112379515</v>
       </c>
       <c r="O140" s="88" t="n">
-        <v>4386327.81162222</v>
+        <v>4377241.317724582</v>
       </c>
       <c r="P140" s="88" t="n">
-        <v>4121407.587184674</v>
+        <v>4114584.024785601</v>
       </c>
       <c r="Q140" s="88" t="n">
-        <v>3565914.04810217</v>
+        <v>3561194.601910023</v>
       </c>
       <c r="R140" s="88" t="n">
-        <v>4454006.329788688</v>
+        <v>4449293.379755757</v>
       </c>
       <c r="S140" s="88" t="n">
-        <v>4130531.67802763</v>
+        <v>4127036.868193387</v>
       </c>
       <c r="T140" s="88" t="n">
-        <v>3902907.786075548</v>
+        <v>3900267.053487088</v>
       </c>
       <c r="U140" s="88" t="n">
-        <v>4598329.134233536</v>
+        <v>4595840.912561306</v>
       </c>
       <c r="V140" s="88" t="n">
-        <v>3981375.507152449</v>
+        <v>3979652.43887024</v>
       </c>
       <c r="W140" s="88" t="n">
-        <v>3734017.537415749</v>
+        <v>3732724.985532906</v>
       </c>
     </row>
     <row r="141">
@@ -19054,67 +19054,67 @@
         </is>
       </c>
       <c r="C141" s="88" t="n">
-        <v>3739680.741846317</v>
+        <v>3272220.649115527</v>
       </c>
       <c r="D141" s="88" t="n">
-        <v>3949250.191562667</v>
+        <v>3455593.917617334</v>
       </c>
       <c r="E141" s="88" t="n">
-        <v>3348789.317919506</v>
+        <v>2930190.653179567</v>
       </c>
       <c r="F141" s="88" t="n">
-        <v>4267841.241004945</v>
+        <v>4024399.316384342</v>
       </c>
       <c r="G141" s="88" t="n">
-        <v>4501105.727220538</v>
+        <v>4300289.577661727</v>
       </c>
       <c r="H141" s="88" t="n">
-        <v>4108567.401073088</v>
+        <v>3964496.001213529</v>
       </c>
       <c r="I141" s="88" t="n">
-        <v>4908363.114799719</v>
+        <v>4772574.063764182</v>
       </c>
       <c r="J141" s="88" t="n">
-        <v>4312194.695395171</v>
+        <v>4217802.314697498</v>
       </c>
       <c r="K141" s="88" t="n">
-        <v>4026211.684210668</v>
+        <v>3956317.811938571</v>
       </c>
       <c r="L141" s="88" t="n">
-        <v>6194219.33996122</v>
+        <v>6108788.673311031</v>
       </c>
       <c r="M141" s="88" t="n">
-        <v>4456748.515132121</v>
+        <v>4407844.333020615</v>
       </c>
       <c r="N141" s="88" t="n">
-        <v>5246347.936349726</v>
+        <v>5200494.392850672</v>
       </c>
       <c r="O141" s="88" t="n">
-        <v>5230782.053865444</v>
+        <v>5194335.475338233</v>
       </c>
       <c r="P141" s="88" t="n">
-        <v>4916363.909966995</v>
+        <v>4889035.433766542</v>
       </c>
       <c r="Q141" s="88" t="n">
-        <v>4298828.49497883</v>
+        <v>4279754.2686455</v>
       </c>
       <c r="R141" s="88" t="n">
-        <v>5195916.624462659</v>
+        <v>5177505.561740623</v>
       </c>
       <c r="S141" s="88" t="n">
-        <v>4802418.571776219</v>
+        <v>4788824.437044624</v>
       </c>
       <c r="T141" s="88" t="n">
-        <v>4574061.943057506</v>
+        <v>4563715.474876098</v>
       </c>
       <c r="U141" s="88" t="n">
-        <v>5407049.711323789</v>
+        <v>5397274.015842933</v>
       </c>
       <c r="V141" s="88" t="n">
-        <v>4685895.648482664</v>
+        <v>4679123.040442185</v>
       </c>
       <c r="W141" s="88" t="n">
-        <v>4413545.654467923</v>
+        <v>4408445.422436949</v>
       </c>
     </row>
     <row r="142">
@@ -19129,67 +19129,67 @@
         </is>
       </c>
       <c r="C142" s="88" t="n">
-        <v>196000.0497702145</v>
+        <v>189677.4675195625</v>
       </c>
       <c r="D142" s="88" t="n">
-        <v>207989.0686568852</v>
+        <v>201279.7438615018</v>
       </c>
       <c r="E142" s="88" t="n">
-        <v>174082.996678975</v>
+        <v>168467.4161409435</v>
       </c>
       <c r="F142" s="88" t="n">
-        <v>192762.0298639814</v>
+        <v>189691.1445558264</v>
       </c>
       <c r="G142" s="88" t="n">
-        <v>200696.4577775205</v>
+        <v>198157.502786858</v>
       </c>
       <c r="H142" s="88" t="n">
-        <v>175919.2654679477</v>
+        <v>174149.310194614</v>
       </c>
       <c r="I142" s="88" t="n">
-        <v>207952.1756562408</v>
+        <v>206286.2024607691</v>
       </c>
       <c r="J142" s="88" t="n">
-        <v>175918.2720539072</v>
+        <v>174795.0002842155</v>
       </c>
       <c r="K142" s="88" t="n">
-        <v>162795.1303568577</v>
+        <v>161966.0185050965</v>
       </c>
       <c r="L142" s="88" t="n">
-        <v>252470.9620417689</v>
+        <v>251444.7380527768</v>
       </c>
       <c r="M142" s="88" t="n">
-        <v>180875.9527528756</v>
+        <v>180288.8981107401</v>
       </c>
       <c r="N142" s="88" t="n">
-        <v>204481.9550177958</v>
+        <v>203951.8213627464</v>
       </c>
       <c r="O142" s="88" t="n">
-        <v>201025.7655629499</v>
+        <v>200609.3307978109</v>
       </c>
       <c r="P142" s="88" t="n">
-        <v>187186.2262167216</v>
+        <v>186876.313433815</v>
       </c>
       <c r="Q142" s="88" t="n">
-        <v>163031.5777730201</v>
+        <v>162815.8073566439</v>
       </c>
       <c r="R142" s="88" t="n">
-        <v>182698.2575537498</v>
+        <v>182504.9377209522</v>
       </c>
       <c r="S142" s="88" t="n">
-        <v>168743.6996786177</v>
+        <v>168600.9269832186</v>
       </c>
       <c r="T142" s="88" t="n">
-        <v>156588.5145819474</v>
+        <v>156482.5657827187</v>
       </c>
       <c r="U142" s="88" t="n">
-        <v>183393.9716225092</v>
+        <v>183294.7345210694</v>
       </c>
       <c r="V142" s="88" t="n">
-        <v>158220.5932847083</v>
+        <v>158152.1182349695</v>
       </c>
       <c r="W142" s="88" t="n">
-        <v>146107.6577421308</v>
+        <v>146057.0817268282</v>
       </c>
     </row>
     <row r="143">
@@ -19279,67 +19279,67 @@
         </is>
       </c>
       <c r="C144" s="89" t="n">
-        <v>111198867.3925072</v>
+        <v>107376693.5238605</v>
       </c>
       <c r="D144" s="89" t="n">
-        <v>117392607.8881034</v>
+        <v>113353375.7386498</v>
       </c>
       <c r="E144" s="89" t="n">
-        <v>99496119.28418605</v>
+        <v>96067920.66333731</v>
       </c>
       <c r="F144" s="89" t="n">
-        <v>124007581.0499632</v>
+        <v>122028117.0420397</v>
       </c>
       <c r="G144" s="89" t="n">
-        <v>130823531.7582188</v>
+        <v>129184096.4676717</v>
       </c>
       <c r="H144" s="89" t="n">
-        <v>119059319.8263895</v>
+        <v>117883602.7814392</v>
       </c>
       <c r="I144" s="89" t="n">
-        <v>142308958.3854069</v>
+        <v>141199241.8269872</v>
       </c>
       <c r="J144" s="89" t="n">
-        <v>124948118.0309172</v>
+        <v>124177496.9918356</v>
       </c>
       <c r="K144" s="89" t="n">
-        <v>116507728.0163714</v>
+        <v>115938325.3822362</v>
       </c>
       <c r="L144" s="89" t="n">
-        <v>179703566.5441315</v>
+        <v>179007058.3356875</v>
       </c>
       <c r="M144" s="89" t="n">
-        <v>129505339.9179929</v>
+        <v>129105643.6531018</v>
       </c>
       <c r="N144" s="89" t="n">
-        <v>152244281.3125966</v>
+        <v>151870425.3103683</v>
       </c>
       <c r="O144" s="89" t="n">
-        <v>151975613.2946204</v>
+        <v>151678479.4714056</v>
       </c>
       <c r="P144" s="89" t="n">
-        <v>142989237.3648848</v>
+        <v>142766321.6714126</v>
       </c>
       <c r="Q144" s="89" t="n">
-        <v>125179831.6203448</v>
+        <v>125024096.3680673</v>
       </c>
       <c r="R144" s="89" t="n">
-        <v>151107852.2675244</v>
+        <v>150958309.4513278</v>
       </c>
       <c r="S144" s="89" t="n">
-        <v>140031314.7953013</v>
+        <v>139920658.327047</v>
       </c>
       <c r="T144" s="89" t="n">
-        <v>133386293.1685627</v>
+        <v>133302106.648858</v>
       </c>
       <c r="U144" s="89" t="n">
-        <v>157907150.564046</v>
+        <v>157827557.0707171</v>
       </c>
       <c r="V144" s="89" t="n">
-        <v>136962138.410944</v>
+        <v>136906978.6322908</v>
       </c>
       <c r="W144" s="89" t="n">
-        <v>128981389.7219115</v>
+        <v>128939909.1595144</v>
       </c>
     </row>
   </sheetData>

--- a/COVID Budget Impact Analysis.xlsx
+++ b/COVID Budget Impact Analysis.xlsx
@@ -242,16 +242,16 @@
       <sz val="13"/>
     </font>
     <font>
+      <name val="Open Sans Regular"/>
+      <i val="1"/>
+      <color theme="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="Open Sans Regular"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
       <b val="1"/>
@@ -313,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -625,6 +625,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -800,11 +815,6 @@
     <xf applyAlignment="1" borderId="14" fillId="0" fontId="22" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf applyAlignment="1" borderId="23" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,17 +828,32 @@
     <xf borderId="19" fillId="9" fontId="28" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf borderId="0" fillId="0" fontId="28" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf borderId="0" fillId="9" fontId="28" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf borderId="18" fillId="9" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="18" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="22" fillId="0" fontId="29" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf borderId="22" fillId="9" fontId="29" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="9" fontId="29" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="25" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="26" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="32" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="18" fillId="0" fontId="32" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="32" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="28" fillId="0" fontId="33" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="32" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="28" fillId="0" fontId="33" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="27" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -876,17 +901,7 @@
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="18" fillId="9" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="18" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="22" fillId="0" fontId="29" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf borderId="22" fillId="9" fontId="29" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="9" fontId="29" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="25" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="26" fillId="0" fontId="28" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="33" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="18" fillId="0" fontId="33" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="27" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="28" fillId="0" fontId="29" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
@@ -898,10 +913,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf applyAlignment="1" borderId="30" fillId="0" fontId="34" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="34" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="30" fillId="0" fontId="34" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="31" fillId="0" fontId="34" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="4"/>
@@ -1222,36 +1237,36 @@
   <dimension ref="B3:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="85" width="7"/>
-    <col customWidth="1" max="2" min="2" style="85" width="31.5"/>
-    <col customWidth="1" max="5" min="3" style="85" width="12.83203125"/>
-    <col customWidth="1" max="6" min="6" style="85" width="0.6640625"/>
-    <col customWidth="1" max="9" min="7" style="85" width="12.83203125"/>
-    <col customWidth="1" max="13" min="10" style="85" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="14" style="85" width="10.83203125"/>
+    <col customWidth="1" max="1" min="1" style="82" width="7"/>
+    <col customWidth="1" max="2" min="2" style="82" width="31.5"/>
+    <col customWidth="1" max="5" min="3" style="82" width="12.83203125"/>
+    <col customWidth="1" max="6" min="6" style="82" width="0.6640625"/>
+    <col customWidth="1" max="9" min="7" style="82" width="12.83203125"/>
+    <col customWidth="1" max="15" min="10" style="82" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="16" style="82" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="20" r="3" s="111">
-      <c r="B3" s="104" t="inlineStr">
+    <row customHeight="1" ht="20" r="3" s="121">
+      <c r="B3" s="114" t="inlineStr">
         <is>
           <t>Estimated Tax Revenue Impacts for Major City of Philadelphia Taxes by Fiscal Year</t>
         </is>
       </c>
-      <c r="C3" s="105" t="n"/>
-      <c r="D3" s="105" t="n"/>
-      <c r="E3" s="105" t="n"/>
-      <c r="F3" s="105" t="n"/>
-      <c r="G3" s="105" t="n"/>
-      <c r="H3" s="105" t="n"/>
-      <c r="I3" s="106" t="n"/>
-    </row>
-    <row customHeight="1" ht="16" r="4" s="111">
-      <c r="B4" s="132" t="inlineStr">
+      <c r="C3" s="115" t="n"/>
+      <c r="D3" s="115" t="n"/>
+      <c r="E3" s="115" t="n"/>
+      <c r="F3" s="115" t="n"/>
+      <c r="G3" s="115" t="n"/>
+      <c r="H3" s="115" t="n"/>
+      <c r="I3" s="116" t="n"/>
+    </row>
+    <row customHeight="1" ht="16" r="4" s="121">
+      <c r="B4" s="101" t="inlineStr">
         <is>
           <t>Dollars in thousands</t>
         </is>
@@ -1260,17 +1275,17 @@
     </row>
     <row r="5">
       <c r="B5" s="58" t="n"/>
-      <c r="C5" s="107" t="inlineStr">
+      <c r="C5" s="117" t="inlineStr">
         <is>
           <t>Differences Relative to March Baseline</t>
         </is>
       </c>
-      <c r="D5" s="108" t="n"/>
-      <c r="E5" s="108" t="n"/>
-      <c r="F5" s="108" t="n"/>
-      <c r="G5" s="108" t="n"/>
-      <c r="H5" s="108" t="n"/>
-      <c r="I5" s="109" t="n"/>
+      <c r="D5" s="118" t="n"/>
+      <c r="E5" s="118" t="n"/>
+      <c r="F5" s="118" t="n"/>
+      <c r="G5" s="118" t="n"/>
+      <c r="H5" s="118" t="n"/>
+      <c r="I5" s="119" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="54" t="n"/>
@@ -1279,16 +1294,16 @@
           <t>Moderate</t>
         </is>
       </c>
-      <c r="D6" s="102" t="n"/>
-      <c r="E6" s="103" t="n"/>
+      <c r="D6" s="112" t="n"/>
+      <c r="E6" s="113" t="n"/>
       <c r="F6" s="59" t="n"/>
       <c r="G6" s="133" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
       </c>
-      <c r="H6" s="102" t="n"/>
-      <c r="I6" s="103" t="n"/>
+      <c r="H6" s="112" t="n"/>
+      <c r="I6" s="113" t="n"/>
     </row>
     <row r="7">
       <c r="B7" s="57" t="inlineStr">
@@ -1296,13 +1311,13 @@
           <t>Tax</t>
         </is>
       </c>
-      <c r="C7" s="84" t="n">
+      <c r="C7" s="81" t="n">
         <v>2020</v>
       </c>
-      <c r="D7" s="84" t="n">
+      <c r="D7" s="81" t="n">
         <v>2021</v>
       </c>
-      <c r="E7" s="84" t="inlineStr">
+      <c r="E7" s="81" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -1311,17 +1326,17 @@
       <c r="G7" s="56" t="n">
         <v>2020</v>
       </c>
-      <c r="H7" s="84" t="n">
+      <c r="H7" s="81" t="n">
         <v>2021</v>
       </c>
-      <c r="I7" s="84" t="inlineStr">
+      <c r="I7" s="81" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="88" t="inlineStr">
+      <c r="B8" s="85" t="inlineStr">
         <is>
           <t>Wage</t>
         </is>
@@ -1338,7 +1353,7 @@
         <f>SUM(C8:D8)</f>
         <v/>
       </c>
-      <c r="F8" s="92" t="n"/>
+      <c r="F8" s="89" t="n"/>
       <c r="G8" s="60">
         <f>Summary!G7/1000</f>
         <v/>
@@ -1353,7 +1368,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="89" t="inlineStr">
+      <c r="B9" s="86" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
@@ -1370,7 +1385,7 @@
         <f>SUM(C9:D9)</f>
         <v/>
       </c>
-      <c r="F9" s="93" t="n"/>
+      <c r="F9" s="90" t="n"/>
       <c r="G9" s="61">
         <f>Summary!G8/1000</f>
         <v/>
@@ -1385,7 +1400,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="90" t="inlineStr">
+      <c r="B10" s="87" t="inlineStr">
         <is>
           <t>Business Income and Receipts</t>
         </is>
@@ -1402,7 +1417,7 @@
         <f>SUM(C10:D10)</f>
         <v/>
       </c>
-      <c r="F10" s="94" t="n"/>
+      <c r="F10" s="91" t="n"/>
       <c r="G10" s="62">
         <f>Summary!G14/1000</f>
         <v/>
@@ -1417,7 +1432,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="89" t="inlineStr">
+      <c r="B11" s="86" t="inlineStr">
         <is>
           <t>Realty Transfer</t>
         </is>
@@ -1434,7 +1449,7 @@
         <f>SUM(C11:D11)</f>
         <v/>
       </c>
-      <c r="F11" s="93" t="n"/>
+      <c r="F11" s="90" t="n"/>
       <c r="G11" s="61">
         <f>Summary!G9/1000</f>
         <v/>
@@ -1449,7 +1464,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="90" t="inlineStr">
+      <c r="B12" s="87" t="inlineStr">
         <is>
           <t>Beverage</t>
         </is>
@@ -1466,7 +1481,7 @@
         <f>SUM(C12:D12)</f>
         <v/>
       </c>
-      <c r="F12" s="94" t="n"/>
+      <c r="F12" s="91" t="n"/>
       <c r="G12" s="62">
         <f>Summary!G10/1000</f>
         <v/>
@@ -1481,7 +1496,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="89" t="inlineStr">
+      <c r="B13" s="86" t="inlineStr">
         <is>
           <t>Amusement</t>
         </is>
@@ -1498,7 +1513,7 @@
         <f>SUM(C13:D13)</f>
         <v/>
       </c>
-      <c r="F13" s="93" t="n"/>
+      <c r="F13" s="90" t="n"/>
       <c r="G13" s="61">
         <f>Summary!G11/1000</f>
         <v/>
@@ -1513,7 +1528,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="90" t="inlineStr">
+      <c r="B14" s="87" t="inlineStr">
         <is>
           <t>Net Profits</t>
         </is>
@@ -1530,7 +1545,7 @@
         <f>SUM(C14:D14)</f>
         <v/>
       </c>
-      <c r="F14" s="94" t="n"/>
+      <c r="F14" s="91" t="n"/>
       <c r="G14" s="62">
         <f>Summary!G12/1000</f>
         <v/>
@@ -1545,7 +1560,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="89" t="inlineStr">
+      <c r="B15" s="86" t="inlineStr">
         <is>
           <t xml:space="preserve">Parking </t>
         </is>
@@ -1562,7 +1577,7 @@
         <f>SUM(C15:D15)</f>
         <v/>
       </c>
-      <c r="F15" s="93" t="n"/>
+      <c r="F15" s="90" t="n"/>
       <c r="G15" s="61">
         <f>Summary!G13/1000</f>
         <v/>
@@ -1577,112 +1592,111 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="86" t="inlineStr">
+      <c r="B16" s="83" t="inlineStr">
         <is>
           <t>Total Difference</t>
         </is>
       </c>
-      <c r="C16" s="91">
+      <c r="C16" s="88">
         <f>SUM(C8:C15)</f>
         <v/>
       </c>
-      <c r="D16" s="91">
+      <c r="D16" s="88">
         <f>SUM(D8:D15)</f>
         <v/>
       </c>
-      <c r="E16" s="91">
+      <c r="E16" s="88">
         <f>SUM(C16:D16)</f>
         <v/>
       </c>
-      <c r="F16" s="87" t="n"/>
-      <c r="G16" s="91">
+      <c r="F16" s="84" t="n"/>
+      <c r="G16" s="88">
         <f>SUM(G8:G15)</f>
         <v/>
       </c>
-      <c r="H16" s="91">
+      <c r="H16" s="88">
         <f>SUM(H8:H15)</f>
         <v/>
       </c>
-      <c r="I16" s="91">
+      <c r="I16" s="88">
         <f>SUM(G16:H16)</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="124" t="inlineStr">
+      <c r="B17" s="93" t="inlineStr">
         <is>
           <t>Baseline</t>
         </is>
       </c>
-      <c r="C17" s="125" t="n">
-        <v>3726400</v>
-      </c>
-      <c r="D17" s="125" t="n">
-        <v>3860800</v>
-      </c>
-      <c r="E17" s="125">
+      <c r="C17" s="94" t="n">
+        <v>3726419</v>
+      </c>
+      <c r="D17" s="94" t="n">
+        <v>3860761</v>
+      </c>
+      <c r="E17" s="94">
         <f>C17+D17</f>
         <v/>
       </c>
-      <c r="F17" s="126" t="n"/>
-      <c r="G17" s="125">
-        <f>C17</f>
-        <v/>
-      </c>
-      <c r="H17" s="125">
+      <c r="F17" s="95" t="n"/>
+      <c r="G17" s="94" t="n">
+        <v>3726419</v>
+      </c>
+      <c r="H17" s="94">
         <f>D17</f>
         <v/>
       </c>
-      <c r="I17" s="125">
+      <c r="I17" s="94">
         <f>E17</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="123" t="inlineStr">
+      <c r="B18" s="92" t="inlineStr">
         <is>
           <t>Percent Change from Baseline</t>
         </is>
       </c>
-      <c r="C18" s="127">
+      <c r="C18" s="96">
         <f>C16/C17</f>
         <v/>
       </c>
-      <c r="D18" s="127">
+      <c r="D18" s="96">
         <f>D16/D17</f>
         <v/>
       </c>
-      <c r="E18" s="127">
+      <c r="E18" s="96">
         <f>E16/E17</f>
         <v/>
       </c>
-      <c r="F18" s="128" t="n"/>
-      <c r="G18" s="127">
+      <c r="F18" s="97" t="n"/>
+      <c r="G18" s="96">
         <f>G16/G17</f>
         <v/>
       </c>
-      <c r="H18" s="127">
+      <c r="H18" s="96">
         <f>H16/H17</f>
         <v/>
       </c>
-      <c r="I18" s="127">
+      <c r="I18" s="96">
         <f>I16/I17</f>
         <v/>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="131" t="inlineStr">
+      <c r="B19" s="100" t="inlineStr">
         <is>
           <t>Note: Baseline estimates from FY21 - FY25 Five Year Financial Plan, as proposed on March 5, 2020.</t>
         </is>
       </c>
-      <c r="C19" s="129" t="n"/>
-      <c r="D19" s="129" t="n"/>
-      <c r="E19" s="129" t="n"/>
-      <c r="F19" s="129" t="n"/>
-      <c r="G19" s="129" t="n"/>
-      <c r="H19" s="129" t="n"/>
-      <c r="I19" s="130" t="n"/>
+      <c r="C19" s="98" t="n"/>
+      <c r="D19" s="98" t="n"/>
+      <c r="E19" s="98" t="n"/>
+      <c r="F19" s="98" t="n"/>
+      <c r="G19" s="98" t="n"/>
+      <c r="H19" s="98" t="n"/>
+      <c r="I19" s="99" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1711,24 +1725,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="117" width="15.1640625"/>
-    <col customWidth="1" max="2" min="2" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="10" min="3" style="117" width="15"/>
-    <col bestFit="1" customWidth="1" max="12" min="11" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="22" min="13" style="117" width="15"/>
-    <col customWidth="1" max="54" min="23" style="117" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="55" style="117" width="10.83203125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="127" width="15.1640625"/>
+    <col customWidth="1" max="2" min="2" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="10" min="3" style="127" width="15"/>
+    <col bestFit="1" customWidth="1" max="12" min="11" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="22" min="13" style="127" width="15"/>
+    <col customWidth="1" max="56" min="23" style="127" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="57" style="127" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26" r="1" s="111">
-      <c r="A1" s="116" t="inlineStr">
+    <row customHeight="1" ht="26" r="1" s="121">
+      <c r="A1" s="126" t="inlineStr">
         <is>
           <t>Amusement Tax Forecasts</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="3" s="111" thickBot="1"/>
-    <row customHeight="1" ht="19" r="4" s="111" thickBot="1">
+    <row customHeight="1" ht="17" r="3" s="121" thickBot="1"/>
+    <row customHeight="1" ht="19" r="4" s="121" thickBot="1">
       <c r="B4" s="4" t="n"/>
       <c r="D4" s="18" t="n"/>
       <c r="E4" s="23" t="inlineStr">
@@ -1742,7 +1756,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="5" s="111">
+    <row customHeight="1" ht="19" r="5" s="121">
       <c r="B5" s="4" t="n"/>
       <c r="D5" s="19" t="inlineStr">
         <is>
@@ -1758,7 +1772,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="6" s="111">
+    <row customHeight="1" ht="19" r="6" s="121">
       <c r="B6" s="4" t="n"/>
       <c r="D6" s="20" t="inlineStr">
         <is>
@@ -1774,7 +1788,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="7" s="111" thickBot="1">
+    <row customHeight="1" ht="21" r="7" s="121" thickBot="1">
       <c r="D7" s="21" t="inlineStr">
         <is>
           <t>FY22</t>
@@ -1790,7 +1804,7 @@
       </c>
       <c r="J7" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="20" r="8" s="111" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="20" r="8" s="121" thickBot="1" thickTop="1">
       <c r="B8" s="11" t="n"/>
       <c r="D8" s="22" t="inlineStr">
         <is>
@@ -1806,11 +1820,11 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="9" s="111">
+    <row customHeight="1" ht="20" r="9" s="121">
       <c r="B9" s="12" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="11" s="111">
-      <c r="A11" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="11" s="121">
+      <c r="A11" s="128" t="inlineStr">
         <is>
           <t>Moderate Scenario</t>
         </is>
@@ -1829,35 +1843,35 @@
       <c r="V11" s="30" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="121" t="inlineStr">
+      <c r="B14" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2020</t>
         </is>
       </c>
-      <c r="C14" s="108" t="n"/>
-      <c r="D14" s="108" t="n"/>
-      <c r="E14" s="108" t="n"/>
-      <c r="F14" s="108" t="n"/>
-      <c r="G14" s="108" t="n"/>
-      <c r="H14" s="108" t="n"/>
-      <c r="I14" s="108" t="n"/>
-      <c r="J14" s="109" t="n"/>
-      <c r="K14" s="121" t="inlineStr">
+      <c r="C14" s="118" t="n"/>
+      <c r="D14" s="118" t="n"/>
+      <c r="E14" s="118" t="n"/>
+      <c r="F14" s="118" t="n"/>
+      <c r="G14" s="118" t="n"/>
+      <c r="H14" s="118" t="n"/>
+      <c r="I14" s="118" t="n"/>
+      <c r="J14" s="119" t="n"/>
+      <c r="K14" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2021</t>
         </is>
       </c>
-      <c r="L14" s="108" t="n"/>
-      <c r="M14" s="108" t="n"/>
-      <c r="N14" s="108" t="n"/>
-      <c r="O14" s="108" t="n"/>
-      <c r="P14" s="108" t="n"/>
-      <c r="Q14" s="108" t="n"/>
-      <c r="R14" s="108" t="n"/>
-      <c r="S14" s="108" t="n"/>
-      <c r="T14" s="108" t="n"/>
-      <c r="U14" s="108" t="n"/>
-      <c r="V14" s="109" t="n"/>
+      <c r="L14" s="118" t="n"/>
+      <c r="M14" s="118" t="n"/>
+      <c r="N14" s="118" t="n"/>
+      <c r="O14" s="118" t="n"/>
+      <c r="P14" s="118" t="n"/>
+      <c r="Q14" s="118" t="n"/>
+      <c r="R14" s="118" t="n"/>
+      <c r="S14" s="118" t="n"/>
+      <c r="T14" s="118" t="n"/>
+      <c r="U14" s="118" t="n"/>
+      <c r="V14" s="119" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n"/>
@@ -2131,8 +2145,8 @@
       <c r="I19" s="73" t="n"/>
       <c r="J19" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="20" s="111">
-      <c r="A20" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="20" s="121">
+      <c r="A20" s="128" t="inlineStr">
         <is>
           <t>Severe Scenario</t>
         </is>
@@ -2151,35 +2165,35 @@
       <c r="V20" s="30" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="121" t="inlineStr">
+      <c r="B23" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2020</t>
         </is>
       </c>
-      <c r="C23" s="108" t="n"/>
-      <c r="D23" s="108" t="n"/>
-      <c r="E23" s="108" t="n"/>
-      <c r="F23" s="108" t="n"/>
-      <c r="G23" s="108" t="n"/>
-      <c r="H23" s="108" t="n"/>
-      <c r="I23" s="108" t="n"/>
-      <c r="J23" s="109" t="n"/>
-      <c r="K23" s="121" t="inlineStr">
+      <c r="C23" s="118" t="n"/>
+      <c r="D23" s="118" t="n"/>
+      <c r="E23" s="118" t="n"/>
+      <c r="F23" s="118" t="n"/>
+      <c r="G23" s="118" t="n"/>
+      <c r="H23" s="118" t="n"/>
+      <c r="I23" s="118" t="n"/>
+      <c r="J23" s="119" t="n"/>
+      <c r="K23" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2021</t>
         </is>
       </c>
-      <c r="L23" s="108" t="n"/>
-      <c r="M23" s="108" t="n"/>
-      <c r="N23" s="108" t="n"/>
-      <c r="O23" s="108" t="n"/>
-      <c r="P23" s="108" t="n"/>
-      <c r="Q23" s="108" t="n"/>
-      <c r="R23" s="108" t="n"/>
-      <c r="S23" s="108" t="n"/>
-      <c r="T23" s="108" t="n"/>
-      <c r="U23" s="108" t="n"/>
-      <c r="V23" s="109" t="n"/>
+      <c r="L23" s="118" t="n"/>
+      <c r="M23" s="118" t="n"/>
+      <c r="N23" s="118" t="n"/>
+      <c r="O23" s="118" t="n"/>
+      <c r="P23" s="118" t="n"/>
+      <c r="Q23" s="118" t="n"/>
+      <c r="R23" s="118" t="n"/>
+      <c r="S23" s="118" t="n"/>
+      <c r="T23" s="118" t="n"/>
+      <c r="U23" s="118" t="n"/>
+      <c r="V23" s="119" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n"/>
@@ -2429,8 +2443,8 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="26" r="30" s="111">
-      <c r="A30" s="122" t="inlineStr">
+    <row customHeight="1" ht="26" r="30" s="121">
+      <c r="A30" s="132" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
@@ -2758,24 +2772,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="117" width="15.1640625"/>
-    <col customWidth="1" max="2" min="2" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="10" min="3" style="117" width="15"/>
-    <col bestFit="1" customWidth="1" max="12" min="11" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="22" min="13" style="117" width="15"/>
-    <col customWidth="1" max="54" min="23" style="117" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="55" style="117" width="10.83203125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="127" width="15.1640625"/>
+    <col customWidth="1" max="2" min="2" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="10" min="3" style="127" width="15"/>
+    <col bestFit="1" customWidth="1" max="12" min="11" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="22" min="13" style="127" width="15"/>
+    <col customWidth="1" max="56" min="23" style="127" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="57" style="127" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26" r="1" s="111">
-      <c r="A1" s="116" t="inlineStr">
+    <row customHeight="1" ht="26" r="1" s="121">
+      <c r="A1" s="126" t="inlineStr">
         <is>
           <t>NPT Forecasts</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="3" s="111" thickBot="1"/>
-    <row customHeight="1" ht="19" r="4" s="111" thickBot="1">
+    <row customHeight="1" ht="17" r="3" s="121" thickBot="1"/>
+    <row customHeight="1" ht="19" r="4" s="121" thickBot="1">
       <c r="B4" s="4" t="n"/>
       <c r="D4" s="18" t="n"/>
       <c r="E4" s="23" t="inlineStr">
@@ -2789,7 +2803,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="5" s="111">
+    <row customHeight="1" ht="19" r="5" s="121">
       <c r="B5" s="4" t="n"/>
       <c r="D5" s="19" t="inlineStr">
         <is>
@@ -2805,7 +2819,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="6" s="111">
+    <row customHeight="1" ht="19" r="6" s="121">
       <c r="B6" s="4" t="n"/>
       <c r="D6" s="20" t="inlineStr">
         <is>
@@ -2821,7 +2835,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="7" s="111" thickBot="1">
+    <row customHeight="1" ht="21" r="7" s="121" thickBot="1">
       <c r="D7" s="21" t="inlineStr">
         <is>
           <t>FY22</t>
@@ -2837,7 +2851,7 @@
       </c>
       <c r="J7" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="20" r="8" s="111" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="20" r="8" s="121" thickBot="1" thickTop="1">
       <c r="B8" s="11" t="n"/>
       <c r="D8" s="22" t="inlineStr">
         <is>
@@ -2853,11 +2867,11 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="9" s="111">
+    <row customHeight="1" ht="20" r="9" s="121">
       <c r="B9" s="12" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="11" s="111">
-      <c r="A11" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="11" s="121">
+      <c r="A11" s="128" t="inlineStr">
         <is>
           <t>Moderate Scenario</t>
         </is>
@@ -2876,35 +2890,35 @@
       <c r="V11" s="30" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="121" t="inlineStr">
+      <c r="B14" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2020</t>
         </is>
       </c>
-      <c r="C14" s="108" t="n"/>
-      <c r="D14" s="108" t="n"/>
-      <c r="E14" s="108" t="n"/>
-      <c r="F14" s="108" t="n"/>
-      <c r="G14" s="108" t="n"/>
-      <c r="H14" s="108" t="n"/>
-      <c r="I14" s="108" t="n"/>
-      <c r="J14" s="109" t="n"/>
-      <c r="K14" s="121" t="inlineStr">
+      <c r="C14" s="118" t="n"/>
+      <c r="D14" s="118" t="n"/>
+      <c r="E14" s="118" t="n"/>
+      <c r="F14" s="118" t="n"/>
+      <c r="G14" s="118" t="n"/>
+      <c r="H14" s="118" t="n"/>
+      <c r="I14" s="118" t="n"/>
+      <c r="J14" s="119" t="n"/>
+      <c r="K14" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2021</t>
         </is>
       </c>
-      <c r="L14" s="108" t="n"/>
-      <c r="M14" s="108" t="n"/>
-      <c r="N14" s="108" t="n"/>
-      <c r="O14" s="108" t="n"/>
-      <c r="P14" s="108" t="n"/>
-      <c r="Q14" s="108" t="n"/>
-      <c r="R14" s="108" t="n"/>
-      <c r="S14" s="108" t="n"/>
-      <c r="T14" s="108" t="n"/>
-      <c r="U14" s="108" t="n"/>
-      <c r="V14" s="109" t="n"/>
+      <c r="L14" s="118" t="n"/>
+      <c r="M14" s="118" t="n"/>
+      <c r="N14" s="118" t="n"/>
+      <c r="O14" s="118" t="n"/>
+      <c r="P14" s="118" t="n"/>
+      <c r="Q14" s="118" t="n"/>
+      <c r="R14" s="118" t="n"/>
+      <c r="S14" s="118" t="n"/>
+      <c r="T14" s="118" t="n"/>
+      <c r="U14" s="118" t="n"/>
+      <c r="V14" s="119" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n"/>
@@ -3178,8 +3192,8 @@
       <c r="I19" s="73" t="n"/>
       <c r="J19" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="20" s="111">
-      <c r="A20" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="20" s="121">
+      <c r="A20" s="128" t="inlineStr">
         <is>
           <t>Severe Scenario</t>
         </is>
@@ -3198,35 +3212,35 @@
       <c r="V20" s="30" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="121" t="inlineStr">
+      <c r="B23" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2020</t>
         </is>
       </c>
-      <c r="C23" s="108" t="n"/>
-      <c r="D23" s="108" t="n"/>
-      <c r="E23" s="108" t="n"/>
-      <c r="F23" s="108" t="n"/>
-      <c r="G23" s="108" t="n"/>
-      <c r="H23" s="108" t="n"/>
-      <c r="I23" s="108" t="n"/>
-      <c r="J23" s="109" t="n"/>
-      <c r="K23" s="121" t="inlineStr">
+      <c r="C23" s="118" t="n"/>
+      <c r="D23" s="118" t="n"/>
+      <c r="E23" s="118" t="n"/>
+      <c r="F23" s="118" t="n"/>
+      <c r="G23" s="118" t="n"/>
+      <c r="H23" s="118" t="n"/>
+      <c r="I23" s="118" t="n"/>
+      <c r="J23" s="119" t="n"/>
+      <c r="K23" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2021</t>
         </is>
       </c>
-      <c r="L23" s="108" t="n"/>
-      <c r="M23" s="108" t="n"/>
-      <c r="N23" s="108" t="n"/>
-      <c r="O23" s="108" t="n"/>
-      <c r="P23" s="108" t="n"/>
-      <c r="Q23" s="108" t="n"/>
-      <c r="R23" s="108" t="n"/>
-      <c r="S23" s="108" t="n"/>
-      <c r="T23" s="108" t="n"/>
-      <c r="U23" s="108" t="n"/>
-      <c r="V23" s="109" t="n"/>
+      <c r="L23" s="118" t="n"/>
+      <c r="M23" s="118" t="n"/>
+      <c r="N23" s="118" t="n"/>
+      <c r="O23" s="118" t="n"/>
+      <c r="P23" s="118" t="n"/>
+      <c r="Q23" s="118" t="n"/>
+      <c r="R23" s="118" t="n"/>
+      <c r="S23" s="118" t="n"/>
+      <c r="T23" s="118" t="n"/>
+      <c r="U23" s="118" t="n"/>
+      <c r="V23" s="119" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n"/>
@@ -3476,8 +3490,8 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="26" r="30" s="111">
-      <c r="A30" s="122" t="inlineStr">
+    <row customHeight="1" ht="26" r="30" s="121">
+      <c r="A30" s="132" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
@@ -3799,22 +3813,22 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="125" zoomScalePageLayoutView="125">
-      <selection activeCell="A7" sqref="A7:A14"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="111" width="35.83203125"/>
-    <col bestFit="1" customWidth="1" max="4" min="2" style="111" width="13.6640625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="111" width="12.5"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="111" width="35.5"/>
-    <col bestFit="1" customWidth="1" max="9" min="7" style="111" width="13.6640625"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="111" width="12.33203125"/>
-    <col customWidth="1" max="45" min="11" style="111" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="46" style="111" width="10.83203125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="121" width="35.83203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="2" style="121" width="13.6640625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="121" width="12.5"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="121" width="35.5"/>
+    <col bestFit="1" customWidth="1" max="9" min="7" style="121" width="13.6640625"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="121" width="12.33203125"/>
+    <col customWidth="1" max="47" min="11" style="121" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="48" style="121" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="21" r="1" s="111">
+    <row customHeight="1" ht="21" r="1" s="121">
       <c r="A1" s="134" t="inlineStr">
         <is>
           <t>Moderate</t>
@@ -3864,7 +3878,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="111">
+    <row hidden="1" r="4" s="121">
       <c r="A4" s="31" t="inlineStr">
         <is>
           <t>Estimated Fund Balance pre-COVID</t>
@@ -3887,7 +3901,7 @@
       <c r="H4" s="51" t="n"/>
       <c r="I4" s="51" t="n"/>
     </row>
-    <row hidden="1" r="5" s="111">
+    <row hidden="1" r="5" s="121">
       <c r="A5" s="31" t="n"/>
       <c r="B5" s="51" t="n"/>
       <c r="C5" s="51" t="n"/>
@@ -4166,7 +4180,7 @@
         </is>
       </c>
       <c r="G13" s="51">
-        <f>'Parking Scenario Analysis'!E5</f>
+        <f>'Parking Scenario Analysis'!F5</f>
         <v/>
       </c>
       <c r="H13" s="51">
@@ -4179,7 +4193,7 @@
       </c>
       <c r="J13" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="14" s="111" thickBot="1">
+    <row customHeight="1" ht="17" r="14" s="121" thickBot="1">
       <c r="A14" s="27" t="inlineStr">
         <is>
           <t>BIRT</t>
@@ -4217,7 +4231,7 @@
       </c>
       <c r="J14" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="15" s="111" thickTop="1">
+    <row customHeight="1" ht="17" r="15" s="121" thickTop="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4293,7 +4307,7 @@
       <c r="H19" s="51" t="n"/>
       <c r="I19" s="51" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="20" s="111">
+    <row customHeight="1" ht="17" r="20" s="121">
       <c r="B20" s="51" t="n"/>
       <c r="C20" s="51" t="n"/>
       <c r="D20" s="51" t="n"/>
@@ -4302,7 +4316,7 @@
       <c r="H20" s="51" t="n"/>
       <c r="I20" s="51" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="21" s="111">
+    <row customHeight="1" ht="17" r="21" s="121">
       <c r="A21" s="52" t="n"/>
       <c r="B21" s="53" t="n"/>
       <c r="C21" s="53" t="n"/>
@@ -4412,26 +4426,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="111" width="48.83203125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="114" width="8"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="111" width="8.83203125"/>
-    <col bestFit="1" customWidth="1" max="9" min="4" style="111" width="8"/>
-    <col customWidth="1" max="10" min="10" style="111" width="10.83203125"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="111" width="48.83203125"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="111" width="8"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="111" width="8.83203125"/>
-    <col bestFit="1" customWidth="1" max="19" min="14" style="111" width="8"/>
-    <col customWidth="1" max="30" min="20" style="111" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="31" style="111" width="10.83203125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="121" width="48.83203125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="124" width="8"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="121" width="8.83203125"/>
+    <col bestFit="1" customWidth="1" max="9" min="4" style="121" width="8"/>
+    <col customWidth="1" max="10" min="10" style="121" width="10.83203125"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="121" width="48.83203125"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="121" width="8"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="121" width="8.83203125"/>
+    <col bestFit="1" customWidth="1" max="19" min="14" style="121" width="8"/>
+    <col customWidth="1" max="32" min="20" style="121" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="33" style="121" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26" r="1" s="111">
-      <c r="A1" s="113" t="inlineStr">
+    <row customHeight="1" ht="26" r="1" s="121">
+      <c r="A1" s="123" t="inlineStr">
         <is>
           <t>Moderate</t>
         </is>
       </c>
-      <c r="K1" s="115" t="inlineStr">
+      <c r="K1" s="125" t="inlineStr">
         <is>
           <t>Severe</t>
         </is>
@@ -4439,11 +4453,11 @@
     </row>
     <row r="2">
       <c r="A2" s="43" t="n"/>
-      <c r="C2" s="114" t="n"/>
-      <c r="D2" s="114" t="n"/>
-      <c r="G2" s="114" t="n"/>
-      <c r="H2" s="114" t="n"/>
-      <c r="I2" s="114" t="n"/>
+      <c r="C2" s="124" t="n"/>
+      <c r="D2" s="124" t="n"/>
+      <c r="G2" s="124" t="n"/>
+      <c r="H2" s="124" t="n"/>
+      <c r="I2" s="124" t="n"/>
       <c r="K2" s="43" t="n"/>
     </row>
     <row r="3">
@@ -4452,7 +4466,7 @@
       <c r="K3" s="43" t="n"/>
       <c r="S3" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="20" r="4" s="111">
+    <row customHeight="1" ht="20" r="4" s="121">
       <c r="A4" s="36" t="inlineStr">
         <is>
           <t>Wage</t>
@@ -5887,7 +5901,7 @@
       <c r="K31" s="39" t="n"/>
       <c r="L31" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="32" s="111">
+    <row customHeight="1" ht="21" r="32" s="121">
       <c r="A32" s="36" t="inlineStr">
         <is>
           <t>Sales</t>
@@ -6798,7 +6812,7 @@
       <c r="R51" s="43" t="n"/>
       <c r="S51" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="52" s="111">
+    <row customHeight="1" ht="21" r="52" s="121">
       <c r="A52" s="49" t="inlineStr">
         <is>
           <t>RTT</t>
@@ -6975,7 +6989,7 @@
       <c r="K56" s="39" t="n"/>
       <c r="L56" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="57" s="111">
+    <row customHeight="1" ht="21" r="57" s="121">
       <c r="A57" s="49" t="inlineStr">
         <is>
           <t>BIRT</t>
@@ -8264,7 +8278,7 @@
       <c r="A83" s="39" t="n"/>
       <c r="K83" s="39" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="84" s="111">
+    <row customHeight="1" ht="21" r="84" s="121">
       <c r="A84" s="49" t="inlineStr">
         <is>
           <t>Soda</t>
@@ -8426,7 +8440,7 @@
       <c r="K89" s="39" t="n"/>
       <c r="L89" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="90" s="111">
+    <row customHeight="1" ht="21" r="90" s="121">
       <c r="A90" s="49" t="inlineStr">
         <is>
           <t>Parking</t>
@@ -8586,7 +8600,7 @@
       <c r="K95" s="39" t="n"/>
       <c r="L95" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="96" s="111">
+    <row customHeight="1" ht="21" r="96" s="121">
       <c r="A96" s="49" t="inlineStr">
         <is>
           <t>Amusement</t>
@@ -8746,7 +8760,7 @@
       <c r="K101" s="43" t="n"/>
       <c r="L101" s="43" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="102" s="111">
+    <row customHeight="1" ht="21" r="102" s="121">
       <c r="A102" s="49" t="inlineStr">
         <is>
           <t>NPT</t>
@@ -9519,26 +9533,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="117" width="21.6640625"/>
-    <col customWidth="1" max="2" min="2" style="117" width="16.5"/>
-    <col bestFit="1" customWidth="1" max="11" min="3" style="117" width="16"/>
-    <col customWidth="1" max="12" min="12" style="117" width="18.1640625"/>
-    <col bestFit="1" customWidth="1" max="23" min="13" style="117" width="16"/>
-    <col customWidth="1" max="49" min="24" style="117" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="50" style="117" width="10.83203125"/>
+    <col customWidth="1" max="1" min="1" style="127" width="21.6640625"/>
+    <col customWidth="1" max="2" min="2" style="127" width="16.5"/>
+    <col bestFit="1" customWidth="1" max="11" min="3" style="127" width="16"/>
+    <col customWidth="1" max="12" min="12" style="127" width="18.1640625"/>
+    <col bestFit="1" customWidth="1" max="23" min="13" style="127" width="16"/>
+    <col customWidth="1" max="51" min="24" style="127" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="52" style="127" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26" r="1" s="111">
-      <c r="A1" s="116" t="inlineStr">
+    <row customHeight="1" ht="26" r="1" s="121">
+      <c r="A1" s="126" t="inlineStr">
         <is>
           <t>Wage Tax Forecasts</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="3" s="111" thickBot="1">
+    <row customHeight="1" ht="19" r="3" s="121" thickBot="1">
       <c r="B3" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="19" r="4" s="111" thickBot="1">
+    <row customHeight="1" ht="19" r="4" s="121" thickBot="1">
       <c r="B4" s="4" t="n"/>
       <c r="D4" s="18" t="n"/>
       <c r="E4" s="23" t="inlineStr">
@@ -9552,7 +9566,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="5" s="111">
+    <row customHeight="1" ht="19" r="5" s="121">
       <c r="B5" s="4" t="n"/>
       <c r="D5" s="19" t="inlineStr">
         <is>
@@ -9568,7 +9582,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="6" s="111">
+    <row customHeight="1" ht="19" r="6" s="121">
       <c r="B6" s="4" t="n"/>
       <c r="D6" s="20" t="inlineStr">
         <is>
@@ -9587,7 +9601,7 @@
       <c r="L6" s="32" t="n"/>
       <c r="M6" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="7" s="111" thickBot="1">
+    <row customHeight="1" ht="17" r="7" s="121" thickBot="1">
       <c r="D7" s="21" t="inlineStr">
         <is>
           <t>FY22</t>
@@ -9602,7 +9616,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="8" s="111" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="20" r="8" s="121" thickBot="1" thickTop="1">
       <c r="D8" s="22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9617,12 +9631,12 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="9" s="111">
+    <row customHeight="1" ht="19" r="9" s="121">
       <c r="B9" s="9" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="10" s="111"/>
-    <row customHeight="1" ht="26" r="11" s="111">
-      <c r="A11" s="118" t="inlineStr">
+    <row customHeight="1" ht="17" r="10" s="121"/>
+    <row customHeight="1" ht="26" r="11" s="121">
+      <c r="A11" s="128" t="inlineStr">
         <is>
           <t>Moderate Duration Scenario</t>
         </is>
@@ -9646,7 +9660,7 @@
     <row r="13">
       <c r="M13" s="71" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="14" s="111">
+    <row customHeight="1" ht="17" r="14" s="121">
       <c r="M14" s="71" t="n"/>
     </row>
     <row r="15">
@@ -11626,7 +11640,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="37" s="111" thickBot="1">
+    <row customHeight="1" ht="17" r="37" s="121" thickBot="1">
       <c r="A37" s="33" t="inlineStr">
         <is>
           <t>Wholesale Trade</t>
@@ -11717,7 +11731,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="38" s="111" thickTop="1">
+    <row customHeight="1" ht="16" r="38" s="121" thickTop="1">
       <c r="A38" s="7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -11911,7 +11925,7 @@
       <c r="I40" s="73" t="n"/>
       <c r="J40" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="41" s="111">
+    <row customHeight="1" ht="17" r="41" s="121">
       <c r="A41" s="7" t="n"/>
       <c r="B41" s="73" t="n"/>
       <c r="C41" s="73" t="n"/>
@@ -11923,8 +11937,8 @@
       <c r="I41" s="73" t="n"/>
       <c r="J41" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="42" s="111">
-      <c r="A42" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="42" s="121">
+      <c r="A42" s="128" t="inlineStr">
         <is>
           <t>Severe Duration Scenario</t>
         </is>
@@ -11948,7 +11962,7 @@
     <row r="44">
       <c r="M44" s="71" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="45" s="111">
+    <row customHeight="1" ht="17" r="45" s="121">
       <c r="M45" s="71" t="n"/>
     </row>
     <row r="46">
@@ -13018,7 +13032,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="58" s="111">
+    <row customHeight="1" ht="16" r="58" s="121">
       <c r="A58" s="2" t="inlineStr">
         <is>
           <t>Public Utilities</t>
@@ -13109,7 +13123,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="59" s="111">
+    <row customHeight="1" ht="16" r="59" s="121">
       <c r="A59" s="2" t="inlineStr">
         <is>
           <t>Publishing, Broadcasting, and Other Information</t>
@@ -13200,7 +13214,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="60" s="111">
+    <row customHeight="1" ht="16" r="60" s="121">
       <c r="A60" s="2" t="inlineStr">
         <is>
           <t>Real Estate, Rental and Leasing</t>
@@ -13291,7 +13305,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="61" s="111">
+    <row customHeight="1" ht="16" r="61" s="121">
       <c r="A61" s="2" t="inlineStr">
         <is>
           <t>Restaurants</t>
@@ -13382,7 +13396,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="62" s="111">
+    <row customHeight="1" ht="16" r="62" s="121">
       <c r="A62" s="2" t="inlineStr">
         <is>
           <t>Retail Trade</t>
@@ -13473,7 +13487,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="63" s="111">
+    <row customHeight="1" ht="16" r="63" s="121">
       <c r="A63" s="2" t="inlineStr">
         <is>
           <t>Securities / Financial Investments</t>
@@ -13564,7 +13578,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="64" s="111">
+    <row customHeight="1" ht="16" r="64" s="121">
       <c r="A64" s="2" t="inlineStr">
         <is>
           <t>Sport Teams</t>
@@ -13655,7 +13669,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="65" s="111">
+    <row customHeight="1" ht="16" r="65" s="121">
       <c r="A65" s="2" t="inlineStr">
         <is>
           <t>Telecommunication</t>
@@ -13746,7 +13760,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="66" s="111">
+    <row customHeight="1" ht="16" r="66" s="121">
       <c r="A66" s="2" t="inlineStr">
         <is>
           <t>Transportation and Warehousing</t>
@@ -13837,7 +13851,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="67" s="111">
+    <row customHeight="1" ht="16" r="67" s="121">
       <c r="A67" s="2" t="inlineStr">
         <is>
           <t>Unclassified Accounts</t>
@@ -13928,7 +13942,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="68" s="111" thickBot="1">
+    <row customHeight="1" ht="16" r="68" s="121" thickBot="1">
       <c r="A68" s="33" t="inlineStr">
         <is>
           <t>Wholesale Trade</t>
@@ -14019,7 +14033,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="69" s="111" thickTop="1">
+    <row customHeight="1" ht="17" r="69" s="121" thickTop="1">
       <c r="A69" s="7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -14201,22 +14215,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="26" r="74" s="111">
-      <c r="A74" s="119" t="inlineStr">
+    <row customHeight="1" ht="26" r="74" s="121">
+      <c r="A74" s="129" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="B74" s="120" t="n"/>
-      <c r="C74" s="120" t="n"/>
-      <c r="D74" s="120" t="n"/>
-      <c r="E74" s="120" t="n"/>
-      <c r="F74" s="120" t="n"/>
-      <c r="G74" s="120" t="n"/>
-      <c r="H74" s="120" t="n"/>
-      <c r="I74" s="120" t="n"/>
-      <c r="J74" s="120" t="n"/>
-      <c r="K74" s="120" t="n"/>
+      <c r="B74" s="130" t="n"/>
+      <c r="C74" s="130" t="n"/>
+      <c r="D74" s="130" t="n"/>
+      <c r="E74" s="130" t="n"/>
+      <c r="F74" s="130" t="n"/>
+      <c r="G74" s="130" t="n"/>
+      <c r="H74" s="130" t="n"/>
+      <c r="I74" s="130" t="n"/>
+      <c r="J74" s="130" t="n"/>
+      <c r="K74" s="130" t="n"/>
       <c r="L74" s="16" t="n"/>
       <c r="M74" s="16" t="n"/>
       <c r="N74" s="16" t="n"/>
@@ -19506,29 +19520,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="117" width="21.6640625"/>
-    <col customWidth="1" max="2" min="2" style="117" width="16.33203125"/>
-    <col bestFit="1" customWidth="1" max="4" min="3" style="117" width="15"/>
-    <col bestFit="1" customWidth="1" max="6" min="5" style="117" width="15.83203125"/>
-    <col bestFit="1" customWidth="1" max="11" min="7" style="117" width="15"/>
-    <col customWidth="1" max="12" min="12" style="117" width="18.1640625"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="117" width="15.83203125"/>
-    <col bestFit="1" customWidth="1" max="23" min="14" style="117" width="15"/>
-    <col customWidth="1" max="49" min="24" style="117" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="50" style="117" width="10.83203125"/>
+    <col customWidth="1" max="1" min="1" style="127" width="21.6640625"/>
+    <col customWidth="1" max="2" min="2" style="127" width="16.33203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="3" style="127" width="15"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" style="127" width="15.83203125"/>
+    <col bestFit="1" customWidth="1" max="11" min="7" style="127" width="15"/>
+    <col customWidth="1" max="12" min="12" style="127" width="18.1640625"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="127" width="15.83203125"/>
+    <col bestFit="1" customWidth="1" max="23" min="14" style="127" width="15"/>
+    <col customWidth="1" max="51" min="24" style="127" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="52" style="127" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26" r="1" s="111">
-      <c r="A1" s="116" t="inlineStr">
+    <row customHeight="1" ht="26" r="1" s="121">
+      <c r="A1" s="126" t="inlineStr">
         <is>
           <t>Sales Tax Forecasts</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="3" s="111" thickBot="1">
+    <row customHeight="1" ht="19" r="3" s="121" thickBot="1">
       <c r="B3" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="19" r="4" s="111" thickBot="1">
+    <row customHeight="1" ht="19" r="4" s="121" thickBot="1">
       <c r="B4" s="4" t="n"/>
       <c r="D4" s="18" t="n"/>
       <c r="E4" s="23" t="inlineStr">
@@ -19542,7 +19556,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="5" s="111">
+    <row customHeight="1" ht="19" r="5" s="121">
       <c r="B5" s="4" t="n"/>
       <c r="D5" s="19" t="inlineStr">
         <is>
@@ -19558,7 +19572,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="6" s="111">
+    <row customHeight="1" ht="19" r="6" s="121">
       <c r="B6" s="4" t="n"/>
       <c r="D6" s="20" t="inlineStr">
         <is>
@@ -19577,7 +19591,7 @@
       <c r="L6" s="32" t="n"/>
       <c r="M6" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="7" s="111" thickBot="1">
+    <row customHeight="1" ht="17" r="7" s="121" thickBot="1">
       <c r="D7" s="21" t="inlineStr">
         <is>
           <t>FY22</t>
@@ -19592,7 +19606,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="8" s="111" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="20" r="8" s="121" thickBot="1" thickTop="1">
       <c r="D8" s="22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -19607,12 +19621,12 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="9" s="111">
+    <row customHeight="1" ht="19" r="9" s="121">
       <c r="B9" s="9" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="10" s="111"/>
-    <row customHeight="1" ht="26" r="11" s="111">
-      <c r="A11" s="118" t="inlineStr">
+    <row customHeight="1" ht="17" r="10" s="121"/>
+    <row customHeight="1" ht="26" r="11" s="121">
+      <c r="A11" s="128" t="inlineStr">
         <is>
           <t>Moderate Duration Scenario</t>
         </is>
@@ -19636,7 +19650,7 @@
     <row r="13">
       <c r="M13" s="71" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="14" s="111">
+    <row customHeight="1" ht="17" r="14" s="121">
       <c r="M14" s="71" t="n"/>
     </row>
     <row r="15">
@@ -20797,7 +20811,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="28" s="111" thickBot="1">
+    <row customHeight="1" ht="16" r="28" s="121" thickBot="1">
       <c r="A28" s="10" t="inlineStr">
         <is>
           <t>Wholesale</t>
@@ -20888,7 +20902,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="29" s="111" thickTop="1">
+    <row customHeight="1" ht="16" r="29" s="121" thickTop="1">
       <c r="A29" s="7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -21082,7 +21096,7 @@
       <c r="I31" s="73" t="n"/>
       <c r="J31" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="32" s="111">
+    <row customHeight="1" ht="17" r="32" s="121">
       <c r="A32" s="7" t="n"/>
       <c r="B32" s="73" t="n"/>
       <c r="C32" s="73" t="n"/>
@@ -21094,8 +21108,8 @@
       <c r="I32" s="73" t="n"/>
       <c r="J32" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="33" s="111">
-      <c r="A33" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="33" s="121">
+      <c r="A33" s="128" t="inlineStr">
         <is>
           <t>Severe Duration Scenario</t>
         </is>
@@ -21119,7 +21133,7 @@
     <row r="35">
       <c r="M35" s="71" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="36" s="111">
+    <row customHeight="1" ht="17" r="36" s="121">
       <c r="M36" s="71" t="n"/>
     </row>
     <row r="37">
@@ -22189,7 +22203,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="49" s="111">
+    <row customHeight="1" ht="16" r="49" s="121">
       <c r="A49" s="7" t="inlineStr">
         <is>
           <t>Total Retail</t>
@@ -22280,7 +22294,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="50" s="111" thickBot="1">
+    <row customHeight="1" ht="16" r="50" s="121" thickBot="1">
       <c r="A50" s="10" t="inlineStr">
         <is>
           <t>Wholesale</t>
@@ -22371,7 +22385,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="51" s="111" thickTop="1">
+    <row customHeight="1" ht="17" r="51" s="121" thickTop="1">
       <c r="A51" s="7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -22553,22 +22567,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="26" r="56" s="111">
-      <c r="A56" s="119" t="inlineStr">
+    <row customHeight="1" ht="26" r="56" s="121">
+      <c r="A56" s="129" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="B56" s="120" t="n"/>
-      <c r="C56" s="120" t="n"/>
-      <c r="D56" s="120" t="n"/>
-      <c r="E56" s="120" t="n"/>
-      <c r="F56" s="120" t="n"/>
-      <c r="G56" s="120" t="n"/>
-      <c r="H56" s="120" t="n"/>
-      <c r="I56" s="120" t="n"/>
-      <c r="J56" s="120" t="n"/>
-      <c r="K56" s="120" t="n"/>
+      <c r="B56" s="130" t="n"/>
+      <c r="C56" s="130" t="n"/>
+      <c r="D56" s="130" t="n"/>
+      <c r="E56" s="130" t="n"/>
+      <c r="F56" s="130" t="n"/>
+      <c r="G56" s="130" t="n"/>
+      <c r="H56" s="130" t="n"/>
+      <c r="I56" s="130" t="n"/>
+      <c r="J56" s="130" t="n"/>
+      <c r="K56" s="130" t="n"/>
       <c r="L56" s="16" t="n"/>
       <c r="M56" s="16" t="n"/>
       <c r="N56" s="16" t="n"/>
@@ -25833,27 +25847,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="117" width="15.1640625"/>
-    <col customWidth="1" max="2" min="2" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="4" min="3" style="117" width="15"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="117" width="14.6640625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="117" width="15.83203125"/>
-    <col bestFit="1" customWidth="1" max="10" min="7" style="117" width="15"/>
-    <col bestFit="1" customWidth="1" max="12" min="11" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="22" min="13" style="117" width="15"/>
-    <col customWidth="1" max="54" min="23" style="117" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="55" style="117" width="10.83203125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="127" width="15.1640625"/>
+    <col customWidth="1" max="2" min="2" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="4" min="3" style="127" width="15"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="127" width="14.6640625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="127" width="15.83203125"/>
+    <col bestFit="1" customWidth="1" max="10" min="7" style="127" width="15"/>
+    <col bestFit="1" customWidth="1" max="12" min="11" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="22" min="13" style="127" width="15"/>
+    <col customWidth="1" max="56" min="23" style="127" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="57" style="127" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26" r="1" s="111">
-      <c r="A1" s="116" t="inlineStr">
+    <row customHeight="1" ht="26" r="1" s="121">
+      <c r="A1" s="126" t="inlineStr">
         <is>
           <t>Realty Transfer Tax (RTT) Forecasts</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="3" s="111" thickBot="1"/>
-    <row customHeight="1" ht="19" r="4" s="111" thickBot="1">
+    <row customHeight="1" ht="17" r="3" s="121" thickBot="1"/>
+    <row customHeight="1" ht="19" r="4" s="121" thickBot="1">
       <c r="B4" s="4" t="n"/>
       <c r="D4" s="18" t="n"/>
       <c r="E4" s="23" t="inlineStr">
@@ -25867,7 +25881,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="5" s="111">
+    <row customHeight="1" ht="19" r="5" s="121">
       <c r="B5" s="4" t="n"/>
       <c r="D5" s="19" t="inlineStr">
         <is>
@@ -25883,7 +25897,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="6" s="111">
+    <row customHeight="1" ht="19" r="6" s="121">
       <c r="B6" s="4" t="n"/>
       <c r="D6" s="20" t="inlineStr">
         <is>
@@ -25899,7 +25913,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="7" s="111" thickBot="1">
+    <row customHeight="1" ht="21" r="7" s="121" thickBot="1">
       <c r="D7" s="21" t="inlineStr">
         <is>
           <t>FY22</t>
@@ -25915,7 +25929,7 @@
       </c>
       <c r="J7" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="20" r="8" s="111" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="20" r="8" s="121" thickBot="1" thickTop="1">
       <c r="B8" s="11" t="n"/>
       <c r="D8" s="22" t="inlineStr">
         <is>
@@ -25931,14 +25945,14 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="9" s="111">
+    <row customHeight="1" ht="20" r="9" s="121">
       <c r="B9" s="12" t="n"/>
     </row>
-    <row customHeight="1" ht="19" r="10" s="111">
+    <row customHeight="1" ht="19" r="10" s="121">
       <c r="B10" s="12" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="11" s="111">
-      <c r="A11" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="11" s="121">
+      <c r="A11" s="128" t="inlineStr">
         <is>
           <t>Moderate Scenario</t>
         </is>
@@ -25957,35 +25971,35 @@
       <c r="V11" s="30" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="121" t="inlineStr">
+      <c r="B14" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2020</t>
         </is>
       </c>
-      <c r="C14" s="108" t="n"/>
-      <c r="D14" s="108" t="n"/>
-      <c r="E14" s="108" t="n"/>
-      <c r="F14" s="108" t="n"/>
-      <c r="G14" s="108" t="n"/>
-      <c r="H14" s="108" t="n"/>
-      <c r="I14" s="108" t="n"/>
-      <c r="J14" s="109" t="n"/>
-      <c r="K14" s="121" t="inlineStr">
+      <c r="C14" s="118" t="n"/>
+      <c r="D14" s="118" t="n"/>
+      <c r="E14" s="118" t="n"/>
+      <c r="F14" s="118" t="n"/>
+      <c r="G14" s="118" t="n"/>
+      <c r="H14" s="118" t="n"/>
+      <c r="I14" s="118" t="n"/>
+      <c r="J14" s="119" t="n"/>
+      <c r="K14" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2021</t>
         </is>
       </c>
-      <c r="L14" s="108" t="n"/>
-      <c r="M14" s="108" t="n"/>
-      <c r="N14" s="108" t="n"/>
-      <c r="O14" s="108" t="n"/>
-      <c r="P14" s="108" t="n"/>
-      <c r="Q14" s="108" t="n"/>
-      <c r="R14" s="108" t="n"/>
-      <c r="S14" s="108" t="n"/>
-      <c r="T14" s="108" t="n"/>
-      <c r="U14" s="108" t="n"/>
-      <c r="V14" s="109" t="n"/>
+      <c r="L14" s="118" t="n"/>
+      <c r="M14" s="118" t="n"/>
+      <c r="N14" s="118" t="n"/>
+      <c r="O14" s="118" t="n"/>
+      <c r="P14" s="118" t="n"/>
+      <c r="Q14" s="118" t="n"/>
+      <c r="R14" s="118" t="n"/>
+      <c r="S14" s="118" t="n"/>
+      <c r="T14" s="118" t="n"/>
+      <c r="U14" s="118" t="n"/>
+      <c r="V14" s="119" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n"/>
@@ -26259,8 +26273,8 @@
       <c r="I19" s="73" t="n"/>
       <c r="J19" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="20" s="111">
-      <c r="A20" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="20" s="121">
+      <c r="A20" s="128" t="inlineStr">
         <is>
           <t>Severe Scenario</t>
         </is>
@@ -26279,35 +26293,35 @@
       <c r="V20" s="30" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="121" t="inlineStr">
+      <c r="B23" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2020</t>
         </is>
       </c>
-      <c r="C23" s="108" t="n"/>
-      <c r="D23" s="108" t="n"/>
-      <c r="E23" s="108" t="n"/>
-      <c r="F23" s="108" t="n"/>
-      <c r="G23" s="108" t="n"/>
-      <c r="H23" s="108" t="n"/>
-      <c r="I23" s="108" t="n"/>
-      <c r="J23" s="109" t="n"/>
-      <c r="K23" s="121" t="inlineStr">
+      <c r="C23" s="118" t="n"/>
+      <c r="D23" s="118" t="n"/>
+      <c r="E23" s="118" t="n"/>
+      <c r="F23" s="118" t="n"/>
+      <c r="G23" s="118" t="n"/>
+      <c r="H23" s="118" t="n"/>
+      <c r="I23" s="118" t="n"/>
+      <c r="J23" s="119" t="n"/>
+      <c r="K23" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2021</t>
         </is>
       </c>
-      <c r="L23" s="108" t="n"/>
-      <c r="M23" s="108" t="n"/>
-      <c r="N23" s="108" t="n"/>
-      <c r="O23" s="108" t="n"/>
-      <c r="P23" s="108" t="n"/>
-      <c r="Q23" s="108" t="n"/>
-      <c r="R23" s="108" t="n"/>
-      <c r="S23" s="108" t="n"/>
-      <c r="T23" s="108" t="n"/>
-      <c r="U23" s="108" t="n"/>
-      <c r="V23" s="109" t="n"/>
+      <c r="L23" s="118" t="n"/>
+      <c r="M23" s="118" t="n"/>
+      <c r="N23" s="118" t="n"/>
+      <c r="O23" s="118" t="n"/>
+      <c r="P23" s="118" t="n"/>
+      <c r="Q23" s="118" t="n"/>
+      <c r="R23" s="118" t="n"/>
+      <c r="S23" s="118" t="n"/>
+      <c r="T23" s="118" t="n"/>
+      <c r="U23" s="118" t="n"/>
+      <c r="V23" s="119" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n"/>
@@ -26557,8 +26571,8 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="26" r="30" s="111">
-      <c r="A30" s="122" t="inlineStr">
+    <row customHeight="1" ht="26" r="30" s="121">
+      <c r="A30" s="132" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
@@ -26856,7 +26870,7 @@
         <v>24017707.77158005</v>
       </c>
     </row>
-    <row customHeight="1" ht="26" r="37" s="111"/>
+    <row customHeight="1" ht="26" r="37" s="121"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A20:J20"/>
@@ -26887,32 +26901,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="117" width="21.6640625"/>
-    <col customWidth="1" max="2" min="2" style="117" width="16.33203125"/>
-    <col bestFit="1" customWidth="1" max="6" min="3" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="8" min="7" style="117" width="15.1640625"/>
-    <col bestFit="1" customWidth="1" max="10" min="9" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="117" width="15.1640625"/>
-    <col customWidth="1" max="12" min="12" style="117" width="18.1640625"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="14" min="14" style="117" width="15.1640625"/>
-    <col bestFit="1" customWidth="1" max="15" min="15" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="23" min="16" style="117" width="15.1640625"/>
-    <col customWidth="1" max="49" min="24" style="117" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="50" style="117" width="10.83203125"/>
+    <col customWidth="1" max="1" min="1" style="127" width="21.6640625"/>
+    <col customWidth="1" max="2" min="2" style="127" width="16.33203125"/>
+    <col bestFit="1" customWidth="1" max="6" min="3" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="8" min="7" style="127" width="15.1640625"/>
+    <col bestFit="1" customWidth="1" max="10" min="9" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="127" width="15.1640625"/>
+    <col customWidth="1" max="12" min="12" style="127" width="18.1640625"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="14" min="14" style="127" width="15.1640625"/>
+    <col bestFit="1" customWidth="1" max="15" min="15" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="23" min="16" style="127" width="15.1640625"/>
+    <col customWidth="1" max="51" min="24" style="127" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="52" style="127" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26" r="1" s="111">
-      <c r="A1" s="116" t="inlineStr">
+    <row customHeight="1" ht="26" r="1" s="121">
+      <c r="A1" s="126" t="inlineStr">
         <is>
           <t>BIRT Forecasts</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="3" s="111" thickBot="1">
+    <row customHeight="1" ht="19" r="3" s="121" thickBot="1">
       <c r="B3" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="19" r="4" s="111" thickBot="1">
+    <row customHeight="1" ht="19" r="4" s="121" thickBot="1">
       <c r="B4" s="4" t="n"/>
       <c r="D4" s="18" t="n"/>
       <c r="E4" s="23" t="inlineStr">
@@ -26926,7 +26940,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="5" s="111">
+    <row customHeight="1" ht="19" r="5" s="121">
       <c r="B5" s="4" t="n"/>
       <c r="D5" s="19" t="inlineStr">
         <is>
@@ -26942,7 +26956,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="6" s="111">
+    <row customHeight="1" ht="19" r="6" s="121">
       <c r="B6" s="4" t="n"/>
       <c r="D6" s="20" t="inlineStr">
         <is>
@@ -26961,7 +26975,7 @@
       <c r="L6" s="32" t="n"/>
       <c r="M6" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="7" s="111" thickBot="1">
+    <row customHeight="1" ht="17" r="7" s="121" thickBot="1">
       <c r="D7" s="21" t="inlineStr">
         <is>
           <t>FY22</t>
@@ -26976,7 +26990,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="8" s="111" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="20" r="8" s="121" thickBot="1" thickTop="1">
       <c r="D8" s="22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -26991,12 +27005,12 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="9" s="111">
+    <row customHeight="1" ht="19" r="9" s="121">
       <c r="B9" s="9" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="10" s="111"/>
-    <row customHeight="1" ht="26" r="11" s="111">
-      <c r="A11" s="118" t="inlineStr">
+    <row customHeight="1" ht="17" r="10" s="121"/>
+    <row customHeight="1" ht="26" r="11" s="121">
+      <c r="A11" s="128" t="inlineStr">
         <is>
           <t>Moderate Duration Scenario</t>
         </is>
@@ -27020,7 +27034,7 @@
     <row r="13">
       <c r="M13" s="71" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="14" s="111">
+    <row customHeight="1" ht="17" r="14" s="121">
       <c r="M14" s="71" t="n"/>
     </row>
     <row r="15">
@@ -28818,7 +28832,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="35" s="111" thickBot="1">
+    <row customHeight="1" ht="17" r="35" s="121" thickBot="1">
       <c r="A35" s="34" t="inlineStr">
         <is>
           <t>Wholesale Trade</t>
@@ -28909,7 +28923,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="36" s="111" thickTop="1">
+    <row customHeight="1" ht="16" r="36" s="121" thickTop="1">
       <c r="A36" s="7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -29103,7 +29117,7 @@
       <c r="I38" s="73" t="n"/>
       <c r="J38" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="39" s="111">
+    <row customHeight="1" ht="17" r="39" s="121">
       <c r="A39" s="7" t="n"/>
       <c r="B39" s="73" t="n"/>
       <c r="C39" s="73" t="n"/>
@@ -29115,8 +29129,8 @@
       <c r="I39" s="73" t="n"/>
       <c r="J39" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="40" s="111">
-      <c r="A40" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="40" s="121">
+      <c r="A40" s="128" t="inlineStr">
         <is>
           <t>Severe Duration Scenario</t>
         </is>
@@ -29140,7 +29154,7 @@
     <row r="42">
       <c r="M42" s="71" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="43" s="111">
+    <row customHeight="1" ht="17" r="43" s="121">
       <c r="M43" s="71" t="n"/>
     </row>
     <row r="44">
@@ -30210,7 +30224,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="56" s="111">
+    <row customHeight="1" ht="16" r="56" s="121">
       <c r="A56" s="52" t="inlineStr">
         <is>
           <t>Other Services  **2</t>
@@ -30301,7 +30315,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="57" s="111">
+    <row customHeight="1" ht="16" r="57" s="121">
       <c r="A57" s="52" t="inlineStr">
         <is>
           <t>Professional Services, subtotal</t>
@@ -30392,7 +30406,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="58" s="111">
+    <row customHeight="1" ht="16" r="58" s="121">
       <c r="A58" s="52" t="inlineStr">
         <is>
           <t>Real Estate (including REITS)</t>
@@ -30483,7 +30497,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="59" s="111">
+    <row customHeight="1" ht="16" r="59" s="121">
       <c r="A59" s="52" t="inlineStr">
         <is>
           <t>Restaurants, Bars, and Other Food Services</t>
@@ -30574,7 +30588,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="60" s="111">
+    <row customHeight="1" ht="16" r="60" s="121">
       <c r="A60" s="52" t="inlineStr">
         <is>
           <t>Retail Trade</t>
@@ -30665,7 +30679,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="61" s="111">
+    <row customHeight="1" ht="16" r="61" s="121">
       <c r="A61" s="52" t="inlineStr">
         <is>
           <t>Sports</t>
@@ -30756,7 +30770,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="62" s="111">
+    <row customHeight="1" ht="16" r="62" s="121">
       <c r="A62" s="52" t="inlineStr">
         <is>
           <t>Transportation and Storage</t>
@@ -30847,7 +30861,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="63" s="111">
+    <row customHeight="1" ht="16" r="63" s="121">
       <c r="A63" s="52" t="inlineStr">
         <is>
           <t>Unclassified</t>
@@ -30938,7 +30952,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="16" r="64" s="111" thickBot="1">
+    <row customHeight="1" ht="16" r="64" s="121" thickBot="1">
       <c r="A64" s="34" t="inlineStr">
         <is>
           <t>Wholesale Trade</t>
@@ -31029,7 +31043,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="65" s="111" thickTop="1">
+    <row customHeight="1" ht="17" r="65" s="121" thickTop="1">
       <c r="A65" s="7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -31211,22 +31225,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="26" r="70" s="111">
-      <c r="A70" s="119" t="inlineStr">
+    <row customHeight="1" ht="26" r="70" s="121">
+      <c r="A70" s="129" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="B70" s="120" t="n"/>
-      <c r="C70" s="120" t="n"/>
-      <c r="D70" s="120" t="n"/>
-      <c r="E70" s="120" t="n"/>
-      <c r="F70" s="120" t="n"/>
-      <c r="G70" s="120" t="n"/>
-      <c r="H70" s="120" t="n"/>
-      <c r="I70" s="120" t="n"/>
-      <c r="J70" s="120" t="n"/>
-      <c r="K70" s="120" t="n"/>
+      <c r="B70" s="130" t="n"/>
+      <c r="C70" s="130" t="n"/>
+      <c r="D70" s="130" t="n"/>
+      <c r="E70" s="130" t="n"/>
+      <c r="F70" s="130" t="n"/>
+      <c r="G70" s="130" t="n"/>
+      <c r="H70" s="130" t="n"/>
+      <c r="I70" s="130" t="n"/>
+      <c r="J70" s="130" t="n"/>
+      <c r="K70" s="130" t="n"/>
       <c r="L70" s="16" t="n"/>
       <c r="M70" s="16" t="n"/>
       <c r="N70" s="16" t="n"/>
@@ -36066,24 +36080,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="117" width="15.1640625"/>
-    <col customWidth="1" max="2" min="2" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="10" min="3" style="117" width="15"/>
-    <col bestFit="1" customWidth="1" max="12" min="11" style="117" width="16"/>
-    <col bestFit="1" customWidth="1" max="22" min="13" style="117" width="15"/>
-    <col customWidth="1" max="54" min="23" style="117" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="55" style="117" width="10.83203125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="127" width="15.1640625"/>
+    <col customWidth="1" max="2" min="2" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="10" min="3" style="127" width="15"/>
+    <col bestFit="1" customWidth="1" max="12" min="11" style="127" width="16"/>
+    <col bestFit="1" customWidth="1" max="22" min="13" style="127" width="15"/>
+    <col customWidth="1" max="56" min="23" style="127" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="57" style="127" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26" r="1" s="111">
-      <c r="A1" s="116" t="inlineStr">
+    <row customHeight="1" ht="26" r="1" s="121">
+      <c r="A1" s="126" t="inlineStr">
         <is>
           <t>Soda Tax Forecasts</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="3" s="111" thickBot="1"/>
-    <row customHeight="1" ht="19" r="4" s="111" thickBot="1">
+    <row customHeight="1" ht="17" r="3" s="121" thickBot="1"/>
+    <row customHeight="1" ht="19" r="4" s="121" thickBot="1">
       <c r="B4" s="4" t="n"/>
       <c r="D4" s="18" t="n"/>
       <c r="E4" s="23" t="inlineStr">
@@ -36097,7 +36111,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="5" s="111">
+    <row customHeight="1" ht="19" r="5" s="121">
       <c r="B5" s="4" t="n"/>
       <c r="D5" s="19" t="inlineStr">
         <is>
@@ -36113,7 +36127,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="6" s="111">
+    <row customHeight="1" ht="19" r="6" s="121">
       <c r="B6" s="4" t="n"/>
       <c r="D6" s="20" t="inlineStr">
         <is>
@@ -36129,7 +36143,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="7" s="111" thickBot="1">
+    <row customHeight="1" ht="21" r="7" s="121" thickBot="1">
       <c r="D7" s="21" t="inlineStr">
         <is>
           <t>FY22</t>
@@ -36145,7 +36159,7 @@
       </c>
       <c r="J7" s="32" t="n"/>
     </row>
-    <row customHeight="1" ht="20" r="8" s="111" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="20" r="8" s="121" thickBot="1" thickTop="1">
       <c r="B8" s="11" t="n"/>
       <c r="D8" s="22" t="inlineStr">
         <is>
@@ -36161,11 +36175,11 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="9" s="111">
+    <row customHeight="1" ht="19" r="9" s="121">
       <c r="B9" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="11" s="111">
-      <c r="A11" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="11" s="121">
+      <c r="A11" s="128" t="inlineStr">
         <is>
           <t>Moderate Scenario</t>
         </is>
@@ -36184,35 +36198,35 @@
       <c r="V11" s="30" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="121" t="inlineStr">
+      <c r="B14" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2020</t>
         </is>
       </c>
-      <c r="C14" s="108" t="n"/>
-      <c r="D14" s="108" t="n"/>
-      <c r="E14" s="108" t="n"/>
-      <c r="F14" s="108" t="n"/>
-      <c r="G14" s="108" t="n"/>
-      <c r="H14" s="108" t="n"/>
-      <c r="I14" s="108" t="n"/>
-      <c r="J14" s="109" t="n"/>
-      <c r="K14" s="121" t="inlineStr">
+      <c r="C14" s="118" t="n"/>
+      <c r="D14" s="118" t="n"/>
+      <c r="E14" s="118" t="n"/>
+      <c r="F14" s="118" t="n"/>
+      <c r="G14" s="118" t="n"/>
+      <c r="H14" s="118" t="n"/>
+      <c r="I14" s="118" t="n"/>
+      <c r="J14" s="119" t="n"/>
+      <c r="K14" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2021</t>
         </is>
       </c>
-      <c r="L14" s="108" t="n"/>
-      <c r="M14" s="108" t="n"/>
-      <c r="N14" s="108" t="n"/>
-      <c r="O14" s="108" t="n"/>
-      <c r="P14" s="108" t="n"/>
-      <c r="Q14" s="108" t="n"/>
-      <c r="R14" s="108" t="n"/>
-      <c r="S14" s="108" t="n"/>
-      <c r="T14" s="108" t="n"/>
-      <c r="U14" s="108" t="n"/>
-      <c r="V14" s="109" t="n"/>
+      <c r="L14" s="118" t="n"/>
+      <c r="M14" s="118" t="n"/>
+      <c r="N14" s="118" t="n"/>
+      <c r="O14" s="118" t="n"/>
+      <c r="P14" s="118" t="n"/>
+      <c r="Q14" s="118" t="n"/>
+      <c r="R14" s="118" t="n"/>
+      <c r="S14" s="118" t="n"/>
+      <c r="T14" s="118" t="n"/>
+      <c r="U14" s="118" t="n"/>
+      <c r="V14" s="119" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n"/>
@@ -36486,8 +36500,8 @@
       <c r="I19" s="73" t="n"/>
       <c r="J19" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="20" s="111">
-      <c r="A20" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="20" s="121">
+      <c r="A20" s="128" t="inlineStr">
         <is>
           <t>Severe Scenario</t>
         </is>
@@ -36506,35 +36520,35 @@
       <c r="V20" s="30" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="121" t="inlineStr">
+      <c r="B23" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2020</t>
         </is>
       </c>
-      <c r="C23" s="108" t="n"/>
-      <c r="D23" s="108" t="n"/>
-      <c r="E23" s="108" t="n"/>
-      <c r="F23" s="108" t="n"/>
-      <c r="G23" s="108" t="n"/>
-      <c r="H23" s="108" t="n"/>
-      <c r="I23" s="108" t="n"/>
-      <c r="J23" s="109" t="n"/>
-      <c r="K23" s="121" t="inlineStr">
+      <c r="C23" s="118" t="n"/>
+      <c r="D23" s="118" t="n"/>
+      <c r="E23" s="118" t="n"/>
+      <c r="F23" s="118" t="n"/>
+      <c r="G23" s="118" t="n"/>
+      <c r="H23" s="118" t="n"/>
+      <c r="I23" s="118" t="n"/>
+      <c r="J23" s="119" t="n"/>
+      <c r="K23" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2021</t>
         </is>
       </c>
-      <c r="L23" s="108" t="n"/>
-      <c r="M23" s="108" t="n"/>
-      <c r="N23" s="108" t="n"/>
-      <c r="O23" s="108" t="n"/>
-      <c r="P23" s="108" t="n"/>
-      <c r="Q23" s="108" t="n"/>
-      <c r="R23" s="108" t="n"/>
-      <c r="S23" s="108" t="n"/>
-      <c r="T23" s="108" t="n"/>
-      <c r="U23" s="108" t="n"/>
-      <c r="V23" s="109" t="n"/>
+      <c r="L23" s="118" t="n"/>
+      <c r="M23" s="118" t="n"/>
+      <c r="N23" s="118" t="n"/>
+      <c r="O23" s="118" t="n"/>
+      <c r="P23" s="118" t="n"/>
+      <c r="Q23" s="118" t="n"/>
+      <c r="R23" s="118" t="n"/>
+      <c r="S23" s="118" t="n"/>
+      <c r="T23" s="118" t="n"/>
+      <c r="U23" s="118" t="n"/>
+      <c r="V23" s="119" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n"/>
@@ -36784,8 +36798,8 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="26" r="30" s="111">
-      <c r="A30" s="122" t="inlineStr">
+    <row customHeight="1" ht="26" r="30" s="121">
+      <c r="A30" s="132" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
@@ -37113,23 +37127,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="117" width="15.1640625"/>
-    <col bestFit="1" customWidth="1" max="4" min="2" style="117" width="14"/>
-    <col bestFit="1" customWidth="1" max="6" min="5" style="117" width="14.6640625"/>
-    <col bestFit="1" customWidth="1" max="22" min="7" style="117" width="14"/>
-    <col customWidth="1" max="54" min="23" style="117" width="10.83203125"/>
-    <col customWidth="1" max="16384" min="55" style="117" width="10.83203125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="127" width="15.1640625"/>
+    <col bestFit="1" customWidth="1" max="4" min="2" style="127" width="14"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" style="127" width="14.6640625"/>
+    <col bestFit="1" customWidth="1" max="22" min="7" style="127" width="14"/>
+    <col customWidth="1" max="56" min="23" style="127" width="10.83203125"/>
+    <col customWidth="1" max="16384" min="57" style="127" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26" r="1" s="111">
-      <c r="A1" s="116" t="inlineStr">
+    <row customHeight="1" ht="26" r="1" s="121">
+      <c r="A1" s="126" t="inlineStr">
         <is>
           <t>Parking Tax Forecasts</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="3" s="111" thickBot="1"/>
-    <row customHeight="1" ht="21" r="4" s="111" thickBot="1">
+    <row customHeight="1" ht="19" r="3" s="121" thickBot="1"/>
+    <row customHeight="1" ht="21" r="4" s="121" thickBot="1">
       <c r="D4" s="18" t="n"/>
       <c r="E4" s="23" t="inlineStr">
         <is>
@@ -37142,7 +37156,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="5" s="111">
+    <row customHeight="1" ht="20" r="5" s="121">
       <c r="D5" s="19" t="inlineStr">
         <is>
           <t>FY20</t>
@@ -37157,7 +37171,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="6" s="111">
+    <row customHeight="1" ht="20" r="6" s="121">
       <c r="D6" s="20" t="inlineStr">
         <is>
           <t>FY21</t>
@@ -37172,7 +37186,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="7" s="111" thickBot="1">
+    <row customHeight="1" ht="19" r="7" s="121" thickBot="1">
       <c r="D7" s="21" t="inlineStr">
         <is>
           <t>FY22</t>
@@ -37187,7 +37201,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19" r="8" s="111" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="19" r="8" s="121" thickBot="1" thickTop="1">
       <c r="D8" s="22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -37202,12 +37216,12 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20" r="9" s="111">
+    <row customHeight="1" ht="20" r="9" s="121">
       <c r="D9" s="17" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="10" s="111"/>
-    <row customHeight="1" ht="26" r="11" s="111">
-      <c r="A11" s="118" t="inlineStr">
+    <row customHeight="1" ht="17" r="10" s="121"/>
+    <row customHeight="1" ht="26" r="11" s="121">
+      <c r="A11" s="128" t="inlineStr">
         <is>
           <t>Moderate Scenario</t>
         </is>
@@ -37225,36 +37239,36 @@
       <c r="U11" s="30" t="n"/>
       <c r="V11" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="14" s="111">
-      <c r="B14" s="121" t="inlineStr">
+    <row customHeight="1" ht="17" r="14" s="121">
+      <c r="B14" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2020</t>
         </is>
       </c>
-      <c r="C14" s="108" t="n"/>
-      <c r="D14" s="108" t="n"/>
-      <c r="E14" s="108" t="n"/>
-      <c r="F14" s="108" t="n"/>
-      <c r="G14" s="108" t="n"/>
-      <c r="H14" s="108" t="n"/>
-      <c r="I14" s="108" t="n"/>
-      <c r="J14" s="109" t="n"/>
-      <c r="K14" s="121" t="inlineStr">
+      <c r="C14" s="118" t="n"/>
+      <c r="D14" s="118" t="n"/>
+      <c r="E14" s="118" t="n"/>
+      <c r="F14" s="118" t="n"/>
+      <c r="G14" s="118" t="n"/>
+      <c r="H14" s="118" t="n"/>
+      <c r="I14" s="118" t="n"/>
+      <c r="J14" s="119" t="n"/>
+      <c r="K14" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2021</t>
         </is>
       </c>
-      <c r="L14" s="108" t="n"/>
-      <c r="M14" s="108" t="n"/>
-      <c r="N14" s="108" t="n"/>
-      <c r="O14" s="108" t="n"/>
-      <c r="P14" s="108" t="n"/>
-      <c r="Q14" s="108" t="n"/>
-      <c r="R14" s="108" t="n"/>
-      <c r="S14" s="108" t="n"/>
-      <c r="T14" s="108" t="n"/>
-      <c r="U14" s="108" t="n"/>
-      <c r="V14" s="109" t="n"/>
+      <c r="L14" s="118" t="n"/>
+      <c r="M14" s="118" t="n"/>
+      <c r="N14" s="118" t="n"/>
+      <c r="O14" s="118" t="n"/>
+      <c r="P14" s="118" t="n"/>
+      <c r="Q14" s="118" t="n"/>
+      <c r="R14" s="118" t="n"/>
+      <c r="S14" s="118" t="n"/>
+      <c r="T14" s="118" t="n"/>
+      <c r="U14" s="118" t="n"/>
+      <c r="V14" s="119" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n"/>
@@ -37516,7 +37530,7 @@
       <c r="I18" s="73" t="n"/>
       <c r="J18" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="19" s="111">
+    <row customHeight="1" ht="17" r="19" s="121">
       <c r="A19" s="7" t="n"/>
       <c r="B19" s="73" t="n"/>
       <c r="C19" s="73" t="n"/>
@@ -37528,8 +37542,8 @@
       <c r="I19" s="73" t="n"/>
       <c r="J19" s="73" t="n"/>
     </row>
-    <row customHeight="1" ht="26" r="20" s="111">
-      <c r="A20" s="118" t="inlineStr">
+    <row customHeight="1" ht="26" r="20" s="121">
+      <c r="A20" s="128" t="inlineStr">
         <is>
           <t>Severe Scenario</t>
         </is>
@@ -37547,36 +37561,36 @@
       <c r="U20" s="30" t="n"/>
       <c r="V20" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="23" s="111">
-      <c r="B23" s="121" t="inlineStr">
+    <row customHeight="1" ht="17" r="23" s="121">
+      <c r="B23" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2020</t>
         </is>
       </c>
-      <c r="C23" s="108" t="n"/>
-      <c r="D23" s="108" t="n"/>
-      <c r="E23" s="108" t="n"/>
-      <c r="F23" s="108" t="n"/>
-      <c r="G23" s="108" t="n"/>
-      <c r="H23" s="108" t="n"/>
-      <c r="I23" s="108" t="n"/>
-      <c r="J23" s="109" t="n"/>
-      <c r="K23" s="121" t="inlineStr">
+      <c r="C23" s="118" t="n"/>
+      <c r="D23" s="118" t="n"/>
+      <c r="E23" s="118" t="n"/>
+      <c r="F23" s="118" t="n"/>
+      <c r="G23" s="118" t="n"/>
+      <c r="H23" s="118" t="n"/>
+      <c r="I23" s="118" t="n"/>
+      <c r="J23" s="119" t="n"/>
+      <c r="K23" s="131" t="inlineStr">
         <is>
           <t>Calendar Year 2021</t>
         </is>
       </c>
-      <c r="L23" s="108" t="n"/>
-      <c r="M23" s="108" t="n"/>
-      <c r="N23" s="108" t="n"/>
-      <c r="O23" s="108" t="n"/>
-      <c r="P23" s="108" t="n"/>
-      <c r="Q23" s="108" t="n"/>
-      <c r="R23" s="108" t="n"/>
-      <c r="S23" s="108" t="n"/>
-      <c r="T23" s="108" t="n"/>
-      <c r="U23" s="108" t="n"/>
-      <c r="V23" s="109" t="n"/>
+      <c r="L23" s="118" t="n"/>
+      <c r="M23" s="118" t="n"/>
+      <c r="N23" s="118" t="n"/>
+      <c r="O23" s="118" t="n"/>
+      <c r="P23" s="118" t="n"/>
+      <c r="Q23" s="118" t="n"/>
+      <c r="R23" s="118" t="n"/>
+      <c r="S23" s="118" t="n"/>
+      <c r="T23" s="118" t="n"/>
+      <c r="U23" s="118" t="n"/>
+      <c r="V23" s="119" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n"/>
@@ -37826,8 +37840,8 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="26" r="30" s="111">
-      <c r="A30" s="122" t="inlineStr">
+    <row customHeight="1" ht="26" r="30" s="121">
+      <c r="A30" s="132" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
@@ -38125,17 +38139,17 @@
         <v>8417071.608904393</v>
       </c>
     </row>
-    <row customHeight="1" ht="26" r="37" s="111"/>
+    <row customHeight="1" ht="26" r="37" s="121"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="K14:V14"/>
-    <mergeCell ref="K23:V23"/>
-    <mergeCell ref="B23:J23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A20:J20"/>
     <mergeCell ref="A30:J30"/>
     <mergeCell ref="B14:J14"/>
+    <mergeCell ref="K14:V14"/>
+    <mergeCell ref="K23:V23"/>
+    <mergeCell ref="B23:J23"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
